--- a/examples/gridworld/TestRigs/qv-analysis.xlsx
+++ b/examples/gridworld/TestRigs/qv-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\devroot\ML\TicTacToe-DeepLearning\examples\gridworld\TestRigs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F64C0F6-4D76-4F37-B8DB-40B9EA5223A0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7204962C-DD94-4342-A311-F7F6A4770D81}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25785" windowHeight="13965" activeTab="1"/>
   </bookViews>
@@ -352,7 +352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2906,8 +2906,8 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="20"/>
-      <c:rotY val="170"/>
+      <c:rotX val="10"/>
+      <c:rotY val="80"/>
       <c:rAngAx val="0"/>
     </c:view3D>
     <c:floor>
@@ -4949,7 +4949,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="r"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -13205,8 +13205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="W103" sqref="W103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19635,11 +19635,11 @@
     </row>
     <row r="92" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="str">
-        <f>IF(B71=B47,"^",IF(B71=C48,"&gt;",IF(B71=B49,"v",IF(B71=A48,"&lt;","?"))))</f>
+        <f t="shared" ref="B92:U92" si="28">IF(MAX(B47,C48,B49,A48)=B47,"^",IF(MAX(B47,C48,B49,A48)=C48,"&gt;",IF(MAX(B47,C48,B49,A48)=B49,"v",IF(MAX(B47,C48,B49,A48)=A48,"&lt;","?"))))</f>
         <v>&gt;</v>
       </c>
       <c r="C92" s="4" t="str">
-        <f t="shared" ref="C92:U92" si="28">IF(C71=C47,"^",IF(C71=D48,"&gt;",IF(C71=C49,"v",IF(C71=B48,"&lt;","?"))))</f>
+        <f t="shared" si="28"/>
         <v>&gt;</v>
       </c>
       <c r="D92" s="4" t="str">
@@ -19717,7 +19717,7 @@
     </row>
     <row r="93" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="str">
-        <f t="shared" ref="B93:U105" si="29">IF(B72=B48,"^",IF(B72=C49,"&gt;",IF(B72=B50,"v",IF(B72=A49,"&lt;","?"))))</f>
+        <f t="shared" ref="B93:U93" si="29">IF(MAX(B48,C49,B50,A49)=B48,"^",IF(MAX(B48,C49,B50,A49)=C49,"&gt;",IF(MAX(B48,C49,B50,A49)=B50,"v",IF(MAX(B48,C49,B50,A49)=A49,"&lt;","?"))))</f>
         <v>&gt;</v>
       </c>
       <c r="C93" s="4" t="str">
@@ -19799,1477 +19799,1477 @@
     </row>
     <row r="94" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="B94:U94" si="30">IF(MAX(B49,C50,B51,A50)=B49,"^",IF(MAX(B49,C50,B51,A50)=C50,"&gt;",IF(MAX(B49,C50,B51,A50)=B51,"v",IF(MAX(B49,C50,B51,A50)=A50,"&lt;","?"))))</f>
         <v>v</v>
       </c>
       <c r="C94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>v</v>
       </c>
       <c r="D94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>^</v>
       </c>
       <c r="E94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>v</v>
       </c>
       <c r="F94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>&gt;</v>
       </c>
       <c r="G94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>v</v>
       </c>
       <c r="H94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>v</v>
       </c>
       <c r="I94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>v</v>
       </c>
       <c r="J94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>v</v>
       </c>
       <c r="K94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>v</v>
       </c>
       <c r="L94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>v</v>
       </c>
       <c r="M94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>^</v>
       </c>
       <c r="N94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>^</v>
       </c>
       <c r="O94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>^</v>
       </c>
       <c r="P94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>&lt;</v>
       </c>
       <c r="Q94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>&lt;</v>
       </c>
       <c r="R94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>v</v>
       </c>
       <c r="S94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>^</v>
       </c>
       <c r="T94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>&lt;</v>
       </c>
       <c r="U94" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>&lt;</v>
       </c>
     </row>
     <row r="95" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="B95:U95" si="31">IF(MAX(B50,C51,B52,A51)=B50,"^",IF(MAX(B50,C51,B52,A51)=C51,"&gt;",IF(MAX(B50,C51,B52,A51)=B52,"v",IF(MAX(B50,C51,B52,A51)=A51,"&lt;","?"))))</f>
         <v>v</v>
       </c>
       <c r="C95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>v</v>
       </c>
       <c r="D95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>&gt;</v>
       </c>
       <c r="E95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>v</v>
       </c>
       <c r="F95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>&gt;</v>
       </c>
       <c r="G95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>v</v>
       </c>
       <c r="H95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>v</v>
       </c>
       <c r="I95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>v</v>
       </c>
       <c r="J95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>v</v>
       </c>
       <c r="K95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>&gt;</v>
       </c>
       <c r="L95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>&lt;</v>
       </c>
       <c r="M95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>&lt;</v>
       </c>
       <c r="N95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>^</v>
       </c>
       <c r="O95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>^</v>
       </c>
       <c r="P95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>&lt;</v>
       </c>
       <c r="Q95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>&gt;</v>
       </c>
       <c r="R95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>^</v>
       </c>
       <c r="S95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>&lt;</v>
       </c>
       <c r="T95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>^</v>
       </c>
       <c r="U95" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>^</v>
       </c>
     </row>
     <row r="96" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="B96:U96" si="32">IF(MAX(B51,C52,B53,A52)=B51,"^",IF(MAX(B51,C52,B53,A52)=C52,"&gt;",IF(MAX(B51,C52,B53,A52)=B53,"v",IF(MAX(B51,C52,B53,A52)=A52,"&lt;","?"))))</f>
         <v>v</v>
       </c>
       <c r="C96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>v</v>
       </c>
       <c r="D96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>&lt;</v>
       </c>
       <c r="E96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>v</v>
       </c>
       <c r="F96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>v</v>
       </c>
       <c r="G96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>v</v>
       </c>
       <c r="H96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>v</v>
       </c>
       <c r="I96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>&lt;</v>
       </c>
       <c r="J96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>v</v>
       </c>
       <c r="K96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>&lt;</v>
       </c>
       <c r="L96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>^</v>
       </c>
       <c r="M96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>&lt;</v>
       </c>
       <c r="N96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>^</v>
       </c>
       <c r="O96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>^</v>
       </c>
       <c r="P96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>^</v>
       </c>
       <c r="Q96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>&lt;</v>
       </c>
       <c r="R96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>^</v>
       </c>
       <c r="S96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>^</v>
       </c>
       <c r="T96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>^</v>
       </c>
       <c r="U96" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>^</v>
       </c>
     </row>
     <row r="97" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="B97:U97" si="33">IF(MAX(B52,C53,B54,A53)=B52,"^",IF(MAX(B52,C53,B54,A53)=C53,"&gt;",IF(MAX(B52,C53,B54,A53)=B54,"v",IF(MAX(B52,C53,B54,A53)=A53,"&lt;","?"))))</f>
         <v>&gt;</v>
       </c>
       <c r="C97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>&lt;</v>
       </c>
       <c r="D97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>&lt;</v>
       </c>
       <c r="E97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>&gt;</v>
       </c>
       <c r="F97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>&gt;</v>
       </c>
       <c r="G97" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>v</v>
       </c>
       <c r="H97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>&lt;</v>
       </c>
       <c r="I97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>&lt;</v>
       </c>
       <c r="J97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>&lt;</v>
       </c>
       <c r="K97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>&lt;</v>
       </c>
       <c r="L97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>^</v>
       </c>
       <c r="M97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>&lt;</v>
       </c>
       <c r="N97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>&lt;</v>
       </c>
       <c r="O97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>&gt;</v>
       </c>
       <c r="P97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>^</v>
       </c>
       <c r="Q97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>^</v>
       </c>
       <c r="R97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>^</v>
       </c>
       <c r="S97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>&lt;</v>
       </c>
       <c r="T97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>^</v>
       </c>
       <c r="U97" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>^</v>
       </c>
     </row>
     <row r="98" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="B98:U98" si="34">IF(MAX(B53,C54,B55,A54)=B53,"^",IF(MAX(B53,C54,B55,A54)=C54,"&gt;",IF(MAX(B53,C54,B55,A54)=B55,"v",IF(MAX(B53,C54,B55,A54)=A54,"&lt;","?"))))</f>
         <v>^</v>
       </c>
       <c r="C98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>^</v>
       </c>
       <c r="D98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>&lt;</v>
       </c>
       <c r="E98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>&gt;</v>
       </c>
       <c r="F98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>&gt;</v>
       </c>
       <c r="G98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>^</v>
       </c>
       <c r="H98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>&lt;</v>
       </c>
       <c r="I98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>&lt;</v>
       </c>
       <c r="J98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>&lt;</v>
       </c>
       <c r="K98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>&lt;</v>
       </c>
       <c r="L98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>&lt;</v>
       </c>
       <c r="M98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>&lt;</v>
       </c>
       <c r="N98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>&lt;</v>
       </c>
       <c r="O98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>&lt;</v>
       </c>
       <c r="P98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>^</v>
       </c>
       <c r="Q98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>^</v>
       </c>
       <c r="R98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>^</v>
       </c>
       <c r="S98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>&lt;</v>
       </c>
       <c r="T98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>^</v>
       </c>
       <c r="U98" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>^</v>
       </c>
     </row>
     <row r="99" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="B99:U99" si="35">IF(MAX(B54,C55,B56,A55)=B54,"^",IF(MAX(B54,C55,B56,A55)=C55,"&gt;",IF(MAX(B54,C55,B56,A55)=B56,"v",IF(MAX(B54,C55,B56,A55)=A55,"&lt;","?"))))</f>
         <v>v</v>
       </c>
       <c r="C99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>^</v>
       </c>
       <c r="D99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>^</v>
       </c>
       <c r="E99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>&gt;</v>
       </c>
       <c r="F99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>^</v>
       </c>
       <c r="G99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>^</v>
       </c>
       <c r="H99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>^</v>
       </c>
       <c r="I99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>&lt;</v>
       </c>
       <c r="J99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>&lt;</v>
       </c>
       <c r="K99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>&lt;</v>
       </c>
       <c r="L99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>&lt;</v>
       </c>
       <c r="M99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>&lt;</v>
       </c>
       <c r="N99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>&lt;</v>
       </c>
       <c r="O99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>&lt;</v>
       </c>
       <c r="P99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>^</v>
       </c>
       <c r="Q99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>^</v>
       </c>
       <c r="R99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>^</v>
       </c>
       <c r="S99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>^</v>
       </c>
       <c r="T99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>^</v>
       </c>
       <c r="U99" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>^</v>
       </c>
     </row>
     <row r="100" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="B100:U100" si="36">IF(MAX(B55,C56,B57,A56)=B55,"^",IF(MAX(B55,C56,B57,A56)=C56,"&gt;",IF(MAX(B55,C56,B57,A56)=B57,"v",IF(MAX(B55,C56,B57,A56)=A56,"&lt;","?"))))</f>
         <v>&gt;</v>
       </c>
       <c r="C100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>v</v>
       </c>
       <c r="D100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>^</v>
       </c>
       <c r="E100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>^</v>
       </c>
       <c r="F100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>^</v>
       </c>
       <c r="G100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>^</v>
       </c>
       <c r="H100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>^</v>
       </c>
       <c r="I100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>&lt;</v>
       </c>
       <c r="J100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>^</v>
       </c>
       <c r="K100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>^</v>
       </c>
       <c r="L100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>&lt;</v>
       </c>
       <c r="M100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>^</v>
       </c>
       <c r="N100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>^</v>
       </c>
       <c r="O100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>^</v>
       </c>
       <c r="P100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>^</v>
       </c>
       <c r="Q100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>^</v>
       </c>
       <c r="R100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>^</v>
       </c>
       <c r="S100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>^</v>
       </c>
       <c r="T100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>^</v>
       </c>
       <c r="U100" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>^</v>
       </c>
     </row>
     <row r="101" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="B101:U101" si="37">IF(MAX(B56,C57,B58,A57)=B56,"^",IF(MAX(B56,C57,B58,A57)=C57,"&gt;",IF(MAX(B56,C57,B58,A57)=B58,"v",IF(MAX(B56,C57,B58,A57)=A57,"&lt;","?"))))</f>
         <v>&gt;</v>
       </c>
       <c r="C101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>v</v>
       </c>
       <c r="D101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>&lt;</v>
       </c>
       <c r="E101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>&lt;</v>
       </c>
       <c r="F101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>v</v>
       </c>
       <c r="G101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>&lt;</v>
       </c>
       <c r="H101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>^</v>
       </c>
       <c r="I101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>^</v>
       </c>
       <c r="J101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>^</v>
       </c>
       <c r="K101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>^</v>
       </c>
       <c r="L101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>^</v>
       </c>
       <c r="M101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>^</v>
       </c>
       <c r="N101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>^</v>
       </c>
       <c r="O101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>&lt;</v>
       </c>
       <c r="P101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>^</v>
       </c>
       <c r="Q101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>^</v>
       </c>
       <c r="R101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>^</v>
       </c>
       <c r="S101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>^</v>
       </c>
       <c r="T101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>^</v>
       </c>
       <c r="U101" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>^</v>
       </c>
     </row>
     <row r="102" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="B102:U102" si="38">IF(MAX(B57,C58,B59,A58)=B57,"^",IF(MAX(B57,C58,B59,A58)=C58,"&gt;",IF(MAX(B57,C58,B59,A58)=B59,"v",IF(MAX(B57,C58,B59,A58)=A58,"&lt;","?"))))</f>
         <v>v</v>
       </c>
       <c r="C102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
       <c r="D102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>&lt;</v>
       </c>
       <c r="E102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>v</v>
       </c>
       <c r="F102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
       <c r="G102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>&lt;</v>
       </c>
       <c r="H102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>&lt;</v>
       </c>
       <c r="I102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>&lt;</v>
       </c>
       <c r="J102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
       <c r="K102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
       <c r="L102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
       <c r="M102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>&lt;</v>
       </c>
       <c r="N102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
       <c r="O102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
       <c r="P102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
       <c r="Q102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>&lt;</v>
       </c>
       <c r="R102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
       <c r="S102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
       <c r="T102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
       <c r="U102" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
     </row>
     <row r="103" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="B103:U103" si="39">IF(MAX(B58,C59,B60,A59)=B58,"^",IF(MAX(B58,C59,B60,A59)=C59,"&gt;",IF(MAX(B58,C59,B60,A59)=B60,"v",IF(MAX(B58,C59,B60,A59)=A59,"&lt;","?"))))</f>
         <v>^</v>
       </c>
       <c r="C103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>&lt;</v>
       </c>
       <c r="D103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>v</v>
       </c>
       <c r="E103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>&lt;</v>
       </c>
       <c r="F103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>&lt;</v>
       </c>
       <c r="G103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>v</v>
       </c>
       <c r="H103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>^</v>
       </c>
       <c r="I103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>&lt;</v>
       </c>
       <c r="J103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>&lt;</v>
       </c>
       <c r="K103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>^</v>
       </c>
       <c r="L103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>^</v>
       </c>
       <c r="M103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>&lt;</v>
       </c>
       <c r="N103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>&lt;</v>
       </c>
       <c r="O103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>^</v>
       </c>
       <c r="P103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>&lt;</v>
       </c>
       <c r="Q103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>&lt;</v>
       </c>
       <c r="R103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>^</v>
       </c>
       <c r="S103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>^</v>
       </c>
       <c r="T103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>^</v>
       </c>
       <c r="U103" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>^</v>
       </c>
     </row>
     <row r="104" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="B104:U104" si="40">IF(MAX(B59,C60,B61,A60)=B59,"^",IF(MAX(B59,C60,B61,A60)=C60,"&gt;",IF(MAX(B59,C60,B61,A60)=B61,"v",IF(MAX(B59,C60,B61,A60)=A60,"&lt;","?"))))</f>
         <v>^</v>
       </c>
       <c r="C104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>&gt;</v>
       </c>
       <c r="D104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>v</v>
       </c>
       <c r="E104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>&lt;</v>
       </c>
       <c r="F104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>v</v>
       </c>
       <c r="G104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>&lt;</v>
       </c>
       <c r="H104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>&lt;</v>
       </c>
       <c r="I104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>&lt;</v>
       </c>
       <c r="J104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>&lt;</v>
       </c>
       <c r="K104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>&lt;</v>
       </c>
       <c r="L104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>&lt;</v>
       </c>
       <c r="M104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>&lt;</v>
       </c>
       <c r="N104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>&lt;</v>
       </c>
       <c r="O104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
       <c r="P104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
       <c r="Q104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
       <c r="R104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
       <c r="S104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
       <c r="T104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
       <c r="U104" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
     </row>
     <row r="105" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="B105:U105" si="41">IF(MAX(B60,C61,B62,A61)=B60,"^",IF(MAX(B60,C61,B62,A61)=C61,"&gt;",IF(MAX(B60,C61,B62,A61)=B62,"v",IF(MAX(B60,C61,B62,A61)=A61,"&lt;","?"))))</f>
         <v>^</v>
       </c>
       <c r="C105" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>&gt;</v>
       </c>
       <c r="D105" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>^</v>
       </c>
       <c r="E105" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>&lt;</v>
       </c>
       <c r="F105" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>&lt;</v>
       </c>
       <c r="G105" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>&lt;</v>
       </c>
       <c r="H105" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>&lt;</v>
       </c>
       <c r="I105" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>&lt;</v>
       </c>
       <c r="J105" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>&lt;</v>
       </c>
       <c r="K105" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>&lt;</v>
       </c>
       <c r="L105" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>&lt;</v>
       </c>
       <c r="M105" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>&lt;</v>
       </c>
       <c r="N105" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>&lt;</v>
       </c>
       <c r="O105" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>&lt;</v>
       </c>
       <c r="P105" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>&lt;</v>
       </c>
       <c r="Q105" s="4" t="str">
-        <f t="shared" ref="Q105:AJ105" si="30">IF(Q84=Q60,"^",IF(Q84=R61,"&gt;",IF(Q84=Q62,"v",IF(Q84=P61,"&lt;","?"))))</f>
+        <f t="shared" si="41"/>
         <v>v</v>
       </c>
       <c r="R105" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>&lt;</v>
       </c>
       <c r="S105" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>^</v>
       </c>
       <c r="T105" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>^</v>
       </c>
       <c r="U105" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>^</v>
       </c>
     </row>
     <row r="106" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B106" s="4" t="str">
-        <f t="shared" ref="B106:U111" si="31">IF(B85=B61,"^",IF(B85=C62,"&gt;",IF(B85=B63,"v",IF(B85=A62,"&lt;","?"))))</f>
+        <f t="shared" ref="B106:U106" si="42">IF(MAX(B61,C62,B63,A62)=B61,"^",IF(MAX(B61,C62,B63,A62)=C62,"&gt;",IF(MAX(B61,C62,B63,A62)=B63,"v",IF(MAX(B61,C62,B63,A62)=A62,"&lt;","?"))))</f>
         <v>^</v>
       </c>
       <c r="C106" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>&gt;</v>
       </c>
       <c r="D106" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>^</v>
       </c>
       <c r="E106" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>^</v>
       </c>
       <c r="F106" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>^</v>
       </c>
       <c r="G106" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>&lt;</v>
       </c>
       <c r="H106" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>v</v>
       </c>
       <c r="I106" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>&lt;</v>
       </c>
       <c r="J106" s="4" t="str">
-        <f>IF(J85=J61,"^",IF(J85=K62,"&gt;",IF(J85=J63,"v",IF(J85=I62,"&lt;","?"))))</f>
+        <f t="shared" si="42"/>
         <v>&lt;</v>
       </c>
       <c r="K106" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>&lt;</v>
       </c>
       <c r="L106" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>^</v>
       </c>
       <c r="M106" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>&lt;</v>
       </c>
       <c r="N106" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>&lt;</v>
       </c>
       <c r="O106" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>&lt;</v>
       </c>
       <c r="P106" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>v</v>
       </c>
       <c r="Q106" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>^</v>
       </c>
       <c r="R106" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>&lt;</v>
       </c>
       <c r="S106" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>^</v>
       </c>
       <c r="T106" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>^</v>
       </c>
       <c r="U106" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>^</v>
       </c>
     </row>
     <row r="107" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="B107:U107" si="43">IF(MAX(B62,C63,B64,A63)=B62,"^",IF(MAX(B62,C63,B64,A63)=C63,"&gt;",IF(MAX(B62,C63,B64,A63)=B64,"v",IF(MAX(B62,C63,B64,A63)=A63,"&lt;","?"))))</f>
         <v>^</v>
       </c>
       <c r="C107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>&lt;</v>
       </c>
       <c r="D107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>^</v>
       </c>
       <c r="E107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>^</v>
       </c>
       <c r="F107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>^</v>
       </c>
       <c r="G107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>&lt;</v>
       </c>
       <c r="H107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>^</v>
       </c>
       <c r="I107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>&lt;</v>
       </c>
       <c r="J107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>^</v>
       </c>
       <c r="K107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>&lt;</v>
       </c>
       <c r="L107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>^</v>
       </c>
       <c r="M107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>^</v>
       </c>
       <c r="N107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>&lt;</v>
       </c>
       <c r="O107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>&gt;</v>
       </c>
       <c r="P107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>&lt;</v>
       </c>
       <c r="Q107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>v</v>
       </c>
       <c r="R107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>^</v>
       </c>
       <c r="S107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>&lt;</v>
       </c>
       <c r="T107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>^</v>
       </c>
       <c r="U107" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>^</v>
       </c>
     </row>
     <row r="108" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="B108:U108" si="44">IF(MAX(B63,C64,B65,A64)=B63,"^",IF(MAX(B63,C64,B65,A64)=C64,"&gt;",IF(MAX(B63,C64,B65,A64)=B65,"v",IF(MAX(B63,C64,B65,A64)=A64,"&lt;","?"))))</f>
         <v>v</v>
       </c>
       <c r="C108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>v</v>
       </c>
       <c r="D108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>&lt;</v>
       </c>
       <c r="E108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>^</v>
       </c>
       <c r="F108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>^</v>
       </c>
       <c r="G108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>^</v>
       </c>
       <c r="H108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>^</v>
       </c>
       <c r="I108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>&lt;</v>
       </c>
       <c r="J108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>v</v>
       </c>
       <c r="K108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>v</v>
       </c>
       <c r="L108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>^</v>
       </c>
       <c r="M108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>&lt;</v>
       </c>
       <c r="N108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>&lt;</v>
       </c>
       <c r="O108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>&lt;</v>
       </c>
       <c r="P108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>&gt;</v>
       </c>
       <c r="Q108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>&lt;</v>
       </c>
       <c r="R108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>&lt;</v>
       </c>
       <c r="S108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>^</v>
       </c>
       <c r="T108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>^</v>
       </c>
       <c r="U108" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>^</v>
       </c>
     </row>
     <row r="109" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="B109:U109" si="45">IF(MAX(B64,C65,B66,A65)=B64,"^",IF(MAX(B64,C65,B66,A65)=C65,"&gt;",IF(MAX(B64,C65,B66,A65)=B66,"v",IF(MAX(B64,C65,B66,A65)=A65,"&lt;","?"))))</f>
         <v>v</v>
       </c>
       <c r="C109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>&lt;</v>
       </c>
       <c r="D109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>&lt;</v>
       </c>
       <c r="E109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>&lt;</v>
       </c>
       <c r="F109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>&lt;</v>
       </c>
       <c r="G109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>^</v>
       </c>
       <c r="H109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>^</v>
       </c>
       <c r="I109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>&lt;</v>
       </c>
       <c r="J109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>v</v>
       </c>
       <c r="K109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>&lt;</v>
       </c>
       <c r="L109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>&lt;</v>
       </c>
       <c r="M109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>&lt;</v>
       </c>
       <c r="N109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>&lt;</v>
       </c>
       <c r="O109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>&lt;</v>
       </c>
       <c r="P109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>&lt;</v>
       </c>
       <c r="Q109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>^</v>
       </c>
       <c r="R109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>&lt;</v>
       </c>
       <c r="S109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>^</v>
       </c>
       <c r="T109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>^</v>
       </c>
       <c r="U109" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>^</v>
       </c>
     </row>
     <row r="110" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="B110:U110" si="46">IF(MAX(B65,C66,B67,A66)=B65,"^",IF(MAX(B65,C66,B67,A66)=C66,"&gt;",IF(MAX(B65,C66,B67,A66)=B67,"v",IF(MAX(B65,C66,B67,A66)=A66,"&lt;","?"))))</f>
         <v>v</v>
       </c>
       <c r="C110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>&lt;</v>
       </c>
       <c r="D110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>&lt;</v>
       </c>
       <c r="E110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>v</v>
       </c>
       <c r="F110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>&lt;</v>
       </c>
       <c r="G110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>&lt;</v>
       </c>
       <c r="H110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>&lt;</v>
       </c>
       <c r="I110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>v</v>
       </c>
       <c r="J110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>v</v>
       </c>
       <c r="K110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>&lt;</v>
       </c>
       <c r="L110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>&lt;</v>
       </c>
       <c r="M110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>&lt;</v>
       </c>
       <c r="N110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>&lt;</v>
       </c>
       <c r="O110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>&lt;</v>
       </c>
       <c r="P110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>&lt;</v>
       </c>
       <c r="Q110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>&lt;</v>
       </c>
       <c r="R110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>&lt;</v>
       </c>
       <c r="S110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>&lt;</v>
       </c>
       <c r="T110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>&lt;</v>
       </c>
       <c r="U110" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>^</v>
       </c>
     </row>
     <row r="111" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="B111:U111" si="47">IF(MAX(B66,C67,B68,A67)=B66,"^",IF(MAX(B66,C67,B68,A67)=C67,"&gt;",IF(MAX(B66,C67,B68,A67)=B68,"v",IF(MAX(B66,C67,B68,A67)=A67,"&lt;","?"))))</f>
         <v>^</v>
       </c>
       <c r="C111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>&lt;</v>
       </c>
       <c r="D111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>&lt;</v>
       </c>
       <c r="E111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>&lt;</v>
       </c>
       <c r="F111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>&lt;</v>
       </c>
       <c r="G111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>&lt;</v>
       </c>
       <c r="H111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>&lt;</v>
       </c>
       <c r="I111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>&gt;</v>
       </c>
       <c r="J111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>&lt;</v>
       </c>
       <c r="K111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>&lt;</v>
       </c>
       <c r="L111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>&lt;</v>
       </c>
       <c r="M111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>&lt;</v>
       </c>
       <c r="N111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>&lt;</v>
       </c>
       <c r="O111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>&lt;</v>
       </c>
       <c r="P111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>&lt;</v>
       </c>
       <c r="Q111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>&lt;</v>
       </c>
       <c r="R111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>&lt;</v>
       </c>
       <c r="S111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>&lt;</v>
       </c>
       <c r="T111" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>&lt;</v>
       </c>
       <c r="U111" s="4" t="str">
-        <f>IF(U90=U66,"^",IF(U90=V67,"&gt;",IF(U90=U68,"v",IF(U90=T67,"&lt;","?"))))</f>
+        <f>IF(MAX(U66,V67,U68,T67)=U66,"^",IF(MAX(U66,V67,U68,T67)=V67,"&gt;",IF(MAX(U66,V67,U68,T67)=U68,"v",IF(MAX(U66,V67,U68,T67)=T67,"&lt;","?"))))</f>
         <v>&lt;</v>
       </c>
     </row>

--- a/examples/gridworld/TestRigs/qv-analysis.xlsx
+++ b/examples/gridworld/TestRigs/qv-analysis.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\devroot\ML\TicTacToe-DeepLearning\examples\gridworld\TestRigs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{42C68D48-A663-4537-ADB4-9D6C7FD470EC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25785" windowHeight="13965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="qv" sheetId="1" r:id="rId1"/>
     <sheet name="qv2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +152,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +359,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -517,7 +526,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -533,6 +542,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -579,8 +591,203 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -593,21 +800,11 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -636,14 +833,11 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
       <c:rotY val="90"/>
-      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -654,7 +848,6 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -665,7 +858,6 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -678,7 +870,6 @@
     <c:plotArea>
       <c:layout/>
       <c:surface3DChart>
-        <c:wireframe val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -759,7 +950,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -845,7 +1036,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -931,7 +1122,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -1017,7 +1208,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -1103,7 +1294,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -1189,7 +1380,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -1277,7 +1468,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -1365,7 +1556,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -1453,7 +1644,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -1541,7 +1732,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -1629,7 +1820,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -1717,7 +1908,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -1806,7 +1997,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -1895,7 +2086,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -1984,7 +2175,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -2073,7 +2264,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -2162,7 +2353,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -2251,7 +2442,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -2339,7 +2530,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000012-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -2427,7 +2618,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000013-E3E4-4D71-8917-9CD911DB7B31}"/>
             </c:ext>
@@ -2621,19 +2812,16 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="734200264"/>
-        <c:axId val="734201576"/>
-        <c:axId val="738129704"/>
+        <c:axId val="181897472"/>
+        <c:axId val="181903360"/>
+        <c:axId val="181887424"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="734200264"/>
+        <c:axId val="181897472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2668,19 +2856,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="734201576"/>
+        <c:crossAx val="181903360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="734201576"/>
+        <c:axId val="181903360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2698,7 +2884,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2727,19 +2912,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="734200264"/>
+        <c:crossAx val="181897472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="738129704"/>
+        <c:axId val="181887424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2774,7 +2956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="734201576"/>
+        <c:crossAx val="181903360"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -2787,7 +2969,191 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2818,14 +3184,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2854,28 +3219,18 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2904,14 +3259,12 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="10"/>
       <c:rotY val="80"/>
-      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2922,7 +3275,6 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2933,7 +3285,6 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2946,7 +3297,6 @@
     <c:plotArea>
       <c:layout/>
       <c:surface3DChart>
-        <c:wireframe val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3027,7 +3377,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -3113,7 +3463,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -3199,7 +3549,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -3285,7 +3635,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -3371,7 +3721,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -3457,7 +3807,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -3545,7 +3895,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -3633,7 +3983,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -3721,7 +4071,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -3809,7 +4159,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -3897,7 +4247,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -3985,7 +4335,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -4074,7 +4424,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -4163,7 +4513,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -4252,7 +4602,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -4341,7 +4691,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -4430,7 +4780,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -4519,7 +4869,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -4607,7 +4957,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000012-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -4695,7 +5045,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000013-ACFC-49F7-BE69-24D897D56B03}"/>
             </c:ext>
@@ -4889,19 +5239,16 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="712862512"/>
-        <c:axId val="712863168"/>
-        <c:axId val="475353216"/>
+        <c:axId val="187497472"/>
+        <c:axId val="191505152"/>
+        <c:axId val="187472512"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="712862512"/>
+        <c:axId val="187497472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4936,19 +5283,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712863168"/>
+        <c:crossAx val="191505152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712863168"/>
+        <c:axId val="191505152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4966,7 +5311,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4995,19 +5339,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712862512"/>
+        <c:crossAx val="187497472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="475353216"/>
+        <c:axId val="187472512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5042,7 +5383,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712863168"/>
+        <c:crossAx val="191505152"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -5055,7 +5396,191 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5086,14 +5611,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5122,7 +5646,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5148,7 +5672,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49BD46EE-08D2-424A-BC8B-AF622E20F6D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49BD46EE-08D2-424A-BC8B-AF622E20F6D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5176,7 +5700,7 @@
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5184,7 +5708,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71DB2392-77E1-448B-BF46-16A8EAA9D9CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71DB2392-77E1-448B-BF46-16A8EAA9D9CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5248,7 +5772,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5300,7 +5824,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5494,23 +6018,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1">
         <v>-6.5567433905297E-3</v>
       </c>
@@ -5572,7 +6096,7 @@
         <v>-3.0735845708707E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>-6.2169298831375001E-3</v>
       </c>
@@ -5634,7 +6158,7 @@
         <v>-3.3047756828131999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>-4.0592490249779E-3</v>
       </c>
@@ -5696,7 +6220,7 @@
         <v>-3.926237940082E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>-2.7835241091543998E-3</v>
       </c>
@@ -5758,7 +6282,7 @@
         <v>-3.4714299554545998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>-3.9740880944392999E-3</v>
       </c>
@@ -5820,7 +6344,7 @@
         <v>-5.5013317400306998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>-1.8506574805799E-3</v>
       </c>
@@ -5882,7 +6406,7 @@
         <v>-5.7348896451620999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>-4.7517757123486E-3</v>
       </c>
@@ -5944,7 +6468,7 @@
         <v>-3.8040544898102001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>-6.9466721863681996E-3</v>
       </c>
@@ -6006,7 +6530,7 @@
         <v>-6.5855219867866997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>-6.1393519473781997E-3</v>
       </c>
@@ -6068,7 +6592,7 @@
         <v>-5.9575395070112997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>-6.9626852564458998E-3</v>
       </c>
@@ -6130,7 +6654,7 @@
         <v>-5.5653469647003002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>-4.8963839980367997E-3</v>
       </c>
@@ -6192,7 +6716,7 @@
         <v>-6.1323189544962003E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>-3.4223988610204001E-3</v>
       </c>
@@ -6254,7 +6778,7 @@
         <v>-6.8347182945416004E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>-3.8750440688387999E-3</v>
       </c>
@@ -6316,7 +6840,7 @@
         <v>-8.2842950775634996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>-3.9435522246332004E-3</v>
       </c>
@@ -6378,7 +6902,7 @@
         <v>-9.4084197636025001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>-4.2460291783464003E-3</v>
       </c>
@@ -6440,7 +6964,7 @@
         <v>-1.0044788942595501E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>-3.6145548071720998E-3</v>
       </c>
@@ -6502,7 +7026,7 @@
         <v>-1.09992653469431E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>-2.6138390954781E-3</v>
       </c>
@@ -6564,7 +7088,7 @@
         <v>-1.2019729892706599E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>-2.6212253782472998E-3</v>
       </c>
@@ -6626,7 +7150,7 @@
         <v>-1.30536900655673E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>-2.9463675810088999E-3</v>
       </c>
@@ -6688,7 +7212,7 @@
         <v>-1.7283788197597998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>-1.6254876462939E-3</v>
       </c>
@@ -6750,13 +7274,13 @@
         <v>-1.6452803730145599E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23">
         <f>ABS(MIN(A1:T20))</f>
         <v>6.2939370390477298E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25">
         <f>A1+$A$23</f>
         <v>5.6382626999947595E-2</v>
@@ -6838,7 +7362,7 @@
         <v>5.9865785819606596E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26">
         <f t="shared" ref="A26:T26" si="1">A2+$A$23</f>
         <v>5.6722440507339794E-2</v>
@@ -6920,7 +7444,7 @@
         <v>5.96345947076641E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27">
         <f t="shared" ref="A27:T27" si="2">A3+$A$23</f>
         <v>5.8880121365499395E-2</v>
@@ -7002,7 +7526,7 @@
         <v>5.90131324503953E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28">
         <f t="shared" ref="A28:T28" si="3">A4+$A$23</f>
         <v>6.0155846281322894E-2</v>
@@ -7084,7 +7608,7 @@
         <v>5.9467940435022695E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29">
         <f t="shared" ref="A29:T29" si="4">A5+$A$23</f>
         <v>5.8965282296038E-2</v>
@@ -7166,7 +7690,7 @@
         <v>5.7438038650446596E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30">
         <f t="shared" ref="A30:T30" si="5">A6+$A$23</f>
         <v>6.1088712909897397E-2</v>
@@ -7248,7 +7772,7 @@
         <v>5.72044807453152E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31">
         <f t="shared" ref="A31:T31" si="6">A7+$A$23</f>
         <v>5.8187594678128701E-2</v>
@@ -7330,7 +7854,7 @@
         <v>5.9135315900667097E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="A32">
         <f t="shared" ref="A32:T32" si="7">A8+$A$23</f>
         <v>5.5992698204109098E-2</v>
@@ -7412,7 +7936,7 @@
         <v>5.63538484036906E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33">
         <f t="shared" ref="A33:T33" si="8">A9+$A$23</f>
         <v>5.68000184430991E-2</v>
@@ -7494,7 +8018,7 @@
         <v>5.6981830883465999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34">
         <f t="shared" ref="A34:T34" si="9">A10+$A$23</f>
         <v>5.5976685134031395E-2</v>
@@ -7576,7 +8100,7 @@
         <v>5.7374023425777E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35">
         <f t="shared" ref="A35:T35" si="10">A11+$A$23</f>
         <v>5.8042986392440502E-2</v>
@@ -7658,7 +8182,7 @@
         <v>5.6807051435981096E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36">
         <f t="shared" ref="A36:T36" si="11">A12+$A$23</f>
         <v>5.9516971529456897E-2</v>
@@ -7740,7 +8264,7 @@
         <v>5.6104652095935695E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37">
         <f t="shared" ref="A37:T37" si="12">A13+$A$23</f>
         <v>5.9064326321638501E-2</v>
@@ -7822,7 +8346,7 @@
         <v>5.4655075312913796E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38">
         <f t="shared" ref="A38:T38" si="13">A14+$A$23</f>
         <v>5.8995818165844094E-2</v>
@@ -7904,7 +8428,7 @@
         <v>5.3530950626874796E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39">
         <f t="shared" ref="A39:T39" si="14">A15+$A$23</f>
         <v>5.8693341212130899E-2</v>
@@ -7986,7 +8510,7 @@
         <v>5.2894581447881797E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40">
         <f t="shared" ref="A40:T40" si="15">A16+$A$23</f>
         <v>5.9324815583305199E-2</v>
@@ -8068,7 +8592,7 @@
         <v>5.1940105043534197E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41">
         <f t="shared" ref="A41:T41" si="16">A17+$A$23</f>
         <v>6.03255312949992E-2</v>
@@ -8150,7 +8674,7 @@
         <v>5.0919640497770702E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42">
         <f t="shared" ref="A42:T42" si="17">A18+$A$23</f>
         <v>6.0318145012229998E-2</v>
@@ -8232,7 +8756,7 @@
         <v>4.9885680324909996E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43">
         <f t="shared" ref="A43:T43" si="18">A19+$A$23</f>
         <v>5.9993002809468399E-2</v>
@@ -8314,7 +8838,7 @@
         <v>4.5655582192879296E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44">
         <f t="shared" ref="A44:T44" si="19">A20+$A$23</f>
         <v>6.1313882744183396E-2</v>
@@ -8396,7 +8920,7 @@
         <v>4.6486566660331699E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47">
         <v>0</v>
       </c>
@@ -8464,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48">
         <v>0</v>
       </c>
@@ -8532,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49">
         <v>0</v>
       </c>
@@ -8600,7 +9124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50">
         <v>0</v>
       </c>
@@ -8668,7 +9192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51">
         <v>0</v>
       </c>
@@ -8736,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52">
         <v>0</v>
       </c>
@@ -8804,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="A53">
         <v>0</v>
       </c>
@@ -8872,7 +9396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54">
         <v>0</v>
       </c>
@@ -8940,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="A55">
         <v>0</v>
       </c>
@@ -9008,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22">
       <c r="A56">
         <v>0</v>
       </c>
@@ -9076,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22">
       <c r="A57">
         <v>0</v>
       </c>
@@ -9144,7 +9668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
       <c r="A58">
         <v>0</v>
       </c>
@@ -9212,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22">
       <c r="A59">
         <v>0</v>
       </c>
@@ -9280,7 +9804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22">
       <c r="A60">
         <v>0</v>
       </c>
@@ -9348,7 +9872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22">
       <c r="A61">
         <v>0</v>
       </c>
@@ -9416,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22">
       <c r="A62">
         <v>0</v>
       </c>
@@ -9484,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22">
       <c r="A63">
         <v>0</v>
       </c>
@@ -9552,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22">
       <c r="A64">
         <v>0</v>
       </c>
@@ -9620,7 +10144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22">
       <c r="A65">
         <v>0</v>
       </c>
@@ -9688,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22">
       <c r="A66">
         <v>0</v>
       </c>
@@ -9756,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22">
       <c r="A67">
         <v>0</v>
       </c>
@@ -9824,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22">
       <c r="A68">
         <v>0</v>
       </c>
@@ -9892,7 +10416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22">
       <c r="B71">
         <f>MAX(B47,A48,B49,C48)</f>
         <v>5.7579790344191098E-2</v>
@@ -9974,7 +10498,7 @@
         <v>5.9851107841709099E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22">
       <c r="B72">
         <f t="shared" ref="B72:U72" si="21">MAX(B48,A49,B50,C49)</f>
         <v>5.9504276236165596E-2</v>
@@ -10056,7 +10580,7 @@
         <v>5.9865785819606596E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22">
       <c r="B73">
         <f t="shared" ref="B73:U73" si="22">MAX(B49,A50,B51,C50)</f>
         <v>6.0155846281322894E-2</v>
@@ -10138,7 +10662,7 @@
         <v>6.0103810692762598E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22">
       <c r="B74">
         <f t="shared" ref="B74:U74" si="23">MAX(B50,A51,B52,C51)</f>
         <v>6.2939370390477298E-2</v>
@@ -10220,7 +10744,7 @@
         <v>5.9223381375316395E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22">
       <c r="B75">
         <f t="shared" ref="B75:U75" si="24">MAX(B51,A52,B53,C52)</f>
         <v>6.1088712909897397E-2</v>
@@ -10302,7 +10826,7 @@
         <v>5.9467940435022695E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22">
       <c r="B76">
         <f t="shared" ref="B76:U76" si="25">MAX(B52,A53,B54,C53)</f>
         <v>6.1097287510688797E-2</v>
@@ -10384,7 +10908,7 @@
         <v>5.9135315900667097E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22">
       <c r="B77">
         <f t="shared" ref="B77:U77" si="26">MAX(B53,A54,B55,C54)</f>
         <v>6.1088712909897397E-2</v>
@@ -10466,7 +10990,7 @@
         <v>5.7725709139599297E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22">
       <c r="B78">
         <f t="shared" ref="B78:U78" si="27">MAX(B54,A55,B56,C55)</f>
         <v>5.8187594678128701E-2</v>
@@ -10548,7 +11072,7 @@
         <v>5.9135315900667097E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22">
       <c r="B79">
         <f t="shared" ref="B79:U79" si="28">MAX(B55,A56,B57,C56)</f>
         <v>5.6963979401234897E-2</v>
@@ -10630,7 +11154,7 @@
         <v>5.7374023425777E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22">
       <c r="B80">
         <f t="shared" ref="B80:U80" si="29">MAX(B56,A57,B58,C57)</f>
         <v>5.8624542104969195E-2</v>
@@ -10712,7 +11236,7 @@
         <v>5.7168180178106397E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:21">
       <c r="B81">
         <f t="shared" ref="B81:U81" si="30">MAX(B57,A58,B59,C58)</f>
         <v>5.9516971529456897E-2</v>
@@ -10794,7 +11318,7 @@
         <v>5.7374023425777E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:21">
       <c r="B82">
         <f t="shared" ref="B82:U82" si="31">MAX(B58,A59,B60,C59)</f>
         <v>5.9064326321638501E-2</v>
@@ -10876,7 +11400,7 @@
         <v>5.6807051435981096E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:21">
       <c r="B83">
         <f t="shared" ref="B83:U83" si="32">MAX(B59,A60,B61,C60)</f>
         <v>5.9516971529456897E-2</v>
@@ -10958,7 +11482,7 @@
         <v>5.6104652095935695E-2</v>
       </c>
     </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:21">
       <c r="B84">
         <f t="shared" ref="B84:U84" si="33">MAX(B60,A61,B62,C61)</f>
         <v>5.9064326321638501E-2</v>
@@ -11040,7 +11564,7 @@
         <v>5.4655075312913796E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:21">
       <c r="B85">
         <f t="shared" ref="B85:U85" si="34">MAX(B61,A62,B63,C62)</f>
         <v>5.9324815583305199E-2</v>
@@ -11122,7 +11646,7 @@
         <v>5.3703062773000701E-2</v>
       </c>
     </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:21">
       <c r="B86">
         <f t="shared" ref="B86:U86" si="35">MAX(B62,A63,B64,C63)</f>
         <v>6.03255312949992E-2</v>
@@ -11204,7 +11728,7 @@
         <v>5.2894581447881797E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:21">
       <c r="B87">
         <f t="shared" ref="B87:U87" si="36">MAX(B63,A64,B65,C64)</f>
         <v>6.04755521656586E-2</v>
@@ -11286,7 +11810,7 @@
         <v>5.1940105043534197E-2</v>
       </c>
     </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:21">
       <c r="B88">
         <f t="shared" ref="B88:U88" si="37">MAX(B64,A65,B66,C65)</f>
         <v>6.03255312949992E-2</v>
@@ -11368,7 +11892,7 @@
         <v>5.0919640497770702E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:21">
       <c r="B89">
         <f t="shared" ref="B89:U89" si="38">MAX(B65,A66,B67,C66)</f>
         <v>6.1313882744183396E-2</v>
@@ -11450,7 +11974,7 @@
         <v>4.9885680324909996E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:21">
       <c r="B90">
         <f t="shared" ref="B90:U90" si="39">MAX(B66,A67,B68,C67)</f>
         <v>6.0229460870005296E-2</v>
@@ -11532,7 +12056,7 @@
         <v>4.6097957792476996E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:21">
       <c r="B92" s="2" t="str">
         <f>IF(B71=B47,"^",IF(B71=C48,"&gt;",IF(B71=B49,"v",IF(B71=A48,"&lt;","?"))))</f>
         <v>&gt;</v>
@@ -11614,7 +12138,7 @@
         <v>&lt;</v>
       </c>
     </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:21">
       <c r="B93" s="2" t="str">
         <f t="shared" ref="B93:U93" si="41">IF(B72=B48,"^",IF(B72=C49,"&gt;",IF(B72=B50,"v",IF(B72=A49,"&lt;","?"))))</f>
         <v>&gt;</v>
@@ -11696,7 +12220,7 @@
         <v>^</v>
       </c>
     </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:21">
       <c r="B94" s="2" t="str">
         <f t="shared" ref="B94:U94" si="42">IF(B73=B49,"^",IF(B73=C50,"&gt;",IF(B73=B51,"v",IF(B73=A50,"&lt;","?"))))</f>
         <v>v</v>
@@ -11778,7 +12302,7 @@
         <v>&lt;</v>
       </c>
     </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:21">
       <c r="B95" s="2" t="str">
         <f t="shared" ref="B95:U95" si="43">IF(B74=B50,"^",IF(B74=C51,"&gt;",IF(B74=B52,"v",IF(B74=A51,"&lt;","?"))))</f>
         <v>&gt;</v>
@@ -11860,7 +12384,7 @@
         <v>&lt;</v>
       </c>
     </row>
-    <row r="96" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:21">
       <c r="B96" s="2" t="str">
         <f t="shared" ref="B96:U96" si="44">IF(B75=B51,"^",IF(B75=C52,"&gt;",IF(B75=B53,"v",IF(B75=A52,"&lt;","?"))))</f>
         <v>v</v>
@@ -11942,7 +12466,7 @@
         <v>^</v>
       </c>
     </row>
-    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:21">
       <c r="B97" s="2" t="str">
         <f t="shared" ref="B97:U97" si="45">IF(B76=B52,"^",IF(B76=C53,"&gt;",IF(B76=B54,"v",IF(B76=A53,"&lt;","?"))))</f>
         <v>&gt;</v>
@@ -12024,7 +12548,7 @@
         <v>v</v>
       </c>
     </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:21">
       <c r="B98" s="2" t="str">
         <f t="shared" ref="B98:U98" si="46">IF(B77=B53,"^",IF(B77=C54,"&gt;",IF(B77=B55,"v",IF(B77=A54,"&lt;","?"))))</f>
         <v>^</v>
@@ -12106,7 +12630,7 @@
         <v>&lt;</v>
       </c>
     </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:21">
       <c r="B99" s="2" t="str">
         <f t="shared" ref="B99:U99" si="47">IF(B78=B54,"^",IF(B78=C55,"&gt;",IF(B78=B56,"v",IF(B78=A55,"&lt;","?"))))</f>
         <v>^</v>
@@ -12188,7 +12712,7 @@
         <v>^</v>
       </c>
     </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:21">
       <c r="B100" s="2" t="str">
         <f t="shared" ref="B100:U100" si="48">IF(B79=B55,"^",IF(B79=C56,"&gt;",IF(B79=B57,"v",IF(B79=A56,"&lt;","?"))))</f>
         <v>&gt;</v>
@@ -12270,7 +12794,7 @@
         <v>v</v>
       </c>
     </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:21">
       <c r="B101" s="2" t="str">
         <f t="shared" ref="B101:U101" si="49">IF(B80=B56,"^",IF(B80=C57,"&gt;",IF(B80=B58,"v",IF(B80=A57,"&lt;","?"))))</f>
         <v>&gt;</v>
@@ -12352,7 +12876,7 @@
         <v>&lt;</v>
       </c>
     </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:21">
       <c r="B102" s="2" t="str">
         <f t="shared" ref="B102:U102" si="50">IF(B81=B57,"^",IF(B81=C58,"&gt;",IF(B81=B59,"v",IF(B81=A58,"&lt;","?"))))</f>
         <v>v</v>
@@ -12434,7 +12958,7 @@
         <v>^</v>
       </c>
     </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:21">
       <c r="B103" s="2" t="str">
         <f t="shared" ref="B103:U103" si="51">IF(B82=B58,"^",IF(B82=C59,"&gt;",IF(B82=B60,"v",IF(B82=A59,"&lt;","?"))))</f>
         <v>v</v>
@@ -12516,7 +13040,7 @@
         <v>^</v>
       </c>
     </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:21">
       <c r="B104" s="2" t="str">
         <f t="shared" ref="B104:U104" si="52">IF(B83=B59,"^",IF(B83=C60,"&gt;",IF(B83=B61,"v",IF(B83=A60,"&lt;","?"))))</f>
         <v>^</v>
@@ -12598,7 +13122,7 @@
         <v>^</v>
       </c>
     </row>
-    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:21">
       <c r="B105" s="2" t="str">
         <f t="shared" ref="B105:U105" si="53">IF(B84=B60,"^",IF(B84=C61,"&gt;",IF(B84=B62,"v",IF(B84=A61,"&lt;","?"))))</f>
         <v>^</v>
@@ -12680,7 +13204,7 @@
         <v>^</v>
       </c>
     </row>
-    <row r="106" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:21">
       <c r="B106" s="2" t="str">
         <f t="shared" ref="B106:U106" si="54">IF(B85=B61,"^",IF(B85=C62,"&gt;",IF(B85=B63,"v",IF(B85=A62,"&lt;","?"))))</f>
         <v>v</v>
@@ -12762,7 +13286,7 @@
         <v>&lt;</v>
       </c>
     </row>
-    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:21">
       <c r="B107" s="2" t="str">
         <f t="shared" ref="B107:U107" si="55">IF(B86=B62,"^",IF(B86=C63,"&gt;",IF(B86=B64,"v",IF(B86=A63,"&lt;","?"))))</f>
         <v>v</v>
@@ -12844,7 +13368,7 @@
         <v>^</v>
       </c>
     </row>
-    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:21">
       <c r="B108" s="2" t="str">
         <f t="shared" ref="B108:U108" si="56">IF(B87=B63,"^",IF(B87=C64,"&gt;",IF(B87=B65,"v",IF(B87=A64,"&lt;","?"))))</f>
         <v>&gt;</v>
@@ -12926,7 +13450,7 @@
         <v>^</v>
       </c>
     </row>
-    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:21">
       <c r="B109" s="2" t="str">
         <f t="shared" ref="B109:U109" si="57">IF(B88=B64,"^",IF(B88=C65,"&gt;",IF(B88=B66,"v",IF(B88=A65,"&lt;","?"))))</f>
         <v>^</v>
@@ -13008,7 +13532,7 @@
         <v>^</v>
       </c>
     </row>
-    <row r="110" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:21">
       <c r="B110" s="2" t="str">
         <f t="shared" ref="B110:U110" si="58">IF(B89=B65,"^",IF(B89=C66,"&gt;",IF(B89=B67,"v",IF(B89=A66,"&lt;","?"))))</f>
         <v>v</v>
@@ -13090,7 +13614,7 @@
         <v>^</v>
       </c>
     </row>
-    <row r="111" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:21">
       <c r="B111" s="2" t="str">
         <f t="shared" ref="B111:U111" si="59">IF(B90=B66,"^",IF(B90=C67,"&gt;",IF(B90=B68,"v",IF(B90=A67,"&lt;","?"))))</f>
         <v>&gt;</v>
@@ -13176,9 +13700,9 @@
   <conditionalFormatting sqref="B48:U67">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13188,9 +13712,9 @@
   <conditionalFormatting sqref="B71:U90">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -13202,16 +13726,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="Z105" sqref="Z105"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1">
         <v>-7.2944224190944996E-3</v>
       </c>
@@ -13273,7 +13797,7 @@
         <v>-1.6649638314167998E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>-7.2047664609698999E-3</v>
       </c>
@@ -13335,7 +13859,7 @@
         <v>-1.6728291048041102E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>-7.1572767486593001E-3</v>
       </c>
@@ -13397,7 +13921,7 @@
         <v>-1.69874861666648E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>-7.0817858490879997E-3</v>
       </c>
@@ -13459,7 +13983,7 @@
         <v>-1.7382777647983998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>-7.3709086478107996E-3</v>
       </c>
@@ -13521,7 +14045,7 @@
         <v>-1.79036651188068E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>-7.5951697494510001E-3</v>
       </c>
@@ -13583,7 +14107,7 @@
         <v>-1.8482606852664001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>-8.4502195839793997E-3</v>
       </c>
@@ -13645,7 +14169,7 @@
         <v>-1.9708161607746799E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>-9.1797931295451007E-3</v>
       </c>
@@ -13707,7 +14231,7 @@
         <v>-2.0693414324985501E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>-9.4989008973960006E-3</v>
       </c>
@@ -13769,7 +14293,7 @@
         <v>-2.1282934238922298E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>-1.0573787939884E-2</v>
       </c>
@@ -13831,7 +14355,7 @@
         <v>-2.2496208155206698E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>-1.2049417256063099E-2</v>
       </c>
@@ -13893,7 +14417,7 @@
         <v>-2.3934206306331599E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>-1.27459670745946E-2</v>
       </c>
@@ -13955,7 +14479,7 @@
         <v>-2.58926713819774E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>-1.3269256581464E-2</v>
       </c>
@@ -14017,7 +14541,7 @@
         <v>-2.84586554458168E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>-1.4183986375910101E-2</v>
       </c>
@@ -14079,7 +14603,7 @@
         <v>-2.9562311604052999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>-1.47082134926279E-2</v>
       </c>
@@ -14141,7 +14665,7 @@
         <v>-3.2026377596362503E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>-1.5381110310080401E-2</v>
       </c>
@@ -14203,7 +14727,7 @@
         <v>-3.4883140734121798E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>-1.5754362225615801E-2</v>
       </c>
@@ -14265,7 +14789,7 @@
         <v>-3.8877070610392403E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>-1.61238800757737E-2</v>
       </c>
@@ -14327,7 +14851,7 @@
         <v>-4.31158920409812E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>-1.6374107830146301E-2</v>
       </c>
@@ -14389,7 +14913,7 @@
         <v>-5.2017632414655603E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>-1.6457516792797999E-2</v>
       </c>
@@ -14451,13 +14975,13 @@
         <v>-4.98014616673415E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23">
         <f>ABS(MIN(A1:T20))</f>
         <v>8.6235856234351496E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25">
         <f>A1+$A$23</f>
         <v>7.8941433815256992E-2</v>
@@ -14539,7 +15063,7 @@
         <v>6.9586217920183491E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26">
         <f t="shared" ref="A26:T38" si="1">A2+$A$23</f>
         <v>7.9031089773381594E-2</v>
@@ -14621,7 +15145,7 @@
         <v>6.9507565186310391E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>7.9078579485692191E-2</v>
@@ -14703,7 +15227,7 @@
         <v>6.9248370067686693E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>7.9154070385263495E-2</v>
@@ -14785,7 +15309,7 @@
         <v>6.8853078586367494E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>7.8864947586540696E-2</v>
@@ -14867,7 +15391,7 @@
         <v>6.8332191115544699E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>7.8640686484900496E-2</v>
@@ -14949,7 +15473,7 @@
         <v>6.7753249381687503E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>7.7785636650372095E-2</v>
@@ -15031,7 +15555,7 @@
         <v>6.6527694626604697E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>7.7056063104806394E-2</v>
@@ -15113,7 +15637,7 @@
         <v>6.5542441909365992E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>7.6736955336955501E-2</v>
@@ -15195,7 +15719,7 @@
         <v>6.4952921995429194E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>7.5662068294467491E-2</v>
@@ -15277,7 +15801,7 @@
         <v>6.3739648079144798E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>7.4186438978288402E-2</v>
@@ -15359,7 +15883,7 @@
         <v>6.2301649928019898E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>7.3489889159756891E-2</v>
@@ -15441,7 +15965,7 @@
         <v>6.0343184852374096E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>7.2966599652887501E-2</v>
@@ -15523,7 +16047,7 @@
         <v>5.7777200788534697E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>7.2051869858441392E-2</v>
@@ -15585,7 +16109,7 @@
         <v>6.0661457971498196E-2</v>
       </c>
       <c r="P38">
-        <f t="shared" ref="P38:AI38" si="2">P14+$A$23</f>
+        <f t="shared" ref="P38:T38" si="2">P14+$A$23</f>
         <v>6.0279995337116893E-2</v>
       </c>
       <c r="Q38">
@@ -15605,7 +16129,7 @@
         <v>5.66735446302985E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39">
         <f t="shared" ref="A39:T44" si="3">A15+$A$23</f>
         <v>7.1527642741723602E-2</v>
@@ -15687,7 +16211,7 @@
         <v>5.4209478637988993E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40">
         <f t="shared" si="3"/>
         <v>7.0854745924271101E-2</v>
@@ -15769,7 +16293,7 @@
         <v>5.1352715500229698E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41">
         <f t="shared" si="3"/>
         <v>7.0481494008735698E-2</v>
@@ -15851,7 +16375,7 @@
         <v>4.7358785623959093E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42">
         <f t="shared" si="3"/>
         <v>7.0111976158577796E-2</v>
@@ -15933,7 +16457,7 @@
         <v>4.3119964193370296E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43">
         <f t="shared" si="3"/>
         <v>6.9861748404205198E-2</v>
@@ -16015,7 +16539,7 @@
         <v>3.4218223819695893E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44">
         <f t="shared" si="3"/>
         <v>6.9778339441553497E-2</v>
@@ -16097,7 +16621,7 @@
         <v>3.6434394567009996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47">
         <v>0</v>
       </c>
@@ -16165,7 +16689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48">
         <v>0</v>
       </c>
@@ -16253,7 +16777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49">
         <v>0</v>
       </c>
@@ -16341,7 +16865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50">
         <v>0</v>
       </c>
@@ -16429,7 +16953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51">
         <v>0</v>
       </c>
@@ -16517,7 +17041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52">
         <v>0</v>
       </c>
@@ -16605,7 +17129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="A53">
         <v>0</v>
       </c>
@@ -16693,7 +17217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54">
         <v>0</v>
       </c>
@@ -16781,7 +17305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="A55">
         <v>0</v>
       </c>
@@ -16869,7 +17393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22">
       <c r="A56">
         <v>0</v>
       </c>
@@ -16957,7 +17481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22">
       <c r="A57">
         <v>0</v>
       </c>
@@ -17045,7 +17569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
       <c r="A58">
         <v>0</v>
       </c>
@@ -17133,7 +17657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22">
       <c r="A59">
         <v>0</v>
       </c>
@@ -17221,7 +17745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22">
       <c r="A60">
         <v>0</v>
       </c>
@@ -17309,7 +17833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22">
       <c r="A61">
         <v>0</v>
       </c>
@@ -17397,7 +17921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22">
       <c r="A62">
         <v>0</v>
       </c>
@@ -17485,7 +18009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22">
       <c r="A63">
         <v>0</v>
       </c>
@@ -17573,7 +18097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22">
       <c r="A64">
         <v>0</v>
       </c>
@@ -17661,7 +18185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22">
       <c r="A65">
         <v>0</v>
       </c>
@@ -17749,7 +18273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22">
       <c r="A66">
         <v>0</v>
       </c>
@@ -17837,7 +18361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22">
       <c r="A67">
         <v>0</v>
       </c>
@@ -17925,7 +18449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22">
       <c r="A68">
         <v>0</v>
       </c>
@@ -17993,7 +18517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22">
       <c r="B71">
         <f>MAX(B47,A48,B49,C48)</f>
         <v>7.9031089773381594E-2</v>
@@ -18075,7 +18599,7 @@
         <v>6.9659489861485901E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22">
       <c r="B72">
         <f t="shared" ref="B72:U84" si="25">MAX(B48,A49,B50,C49)</f>
         <v>7.9078579485692191E-2</v>
@@ -18157,7 +18681,7 @@
         <v>6.9586217920183491E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22">
       <c r="B73">
         <f t="shared" si="25"/>
         <v>7.9160939830426394E-2</v>
@@ -18239,7 +18763,7 @@
         <v>6.9507565186310391E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22">
       <c r="B74">
         <f t="shared" si="25"/>
         <v>7.9398564299985791E-2</v>
@@ -18321,7 +18845,7 @@
         <v>6.9248370067686693E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22">
       <c r="B75">
         <f t="shared" si="25"/>
         <v>7.916048031194739E-2</v>
@@ -18403,7 +18927,7 @@
         <v>6.8853078586367494E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22">
       <c r="B76">
         <f t="shared" si="25"/>
         <v>7.8944130362005899E-2</v>
@@ -18485,7 +19009,7 @@
         <v>6.8332191115544699E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22">
       <c r="B77">
         <f t="shared" si="25"/>
         <v>7.8667100411840302E-2</v>
@@ -18567,7 +19091,7 @@
         <v>6.7753249381687503E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22">
       <c r="B78">
         <f t="shared" si="25"/>
         <v>7.7785636650372095E-2</v>
@@ -18649,7 +19173,7 @@
         <v>6.6527694626604697E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22">
       <c r="B79">
         <f t="shared" si="25"/>
         <v>7.7056063104806394E-2</v>
@@ -18731,7 +19255,7 @@
         <v>6.5542441909365992E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22">
       <c r="B80">
         <f t="shared" si="25"/>
         <v>7.6736955336955501E-2</v>
@@ -18813,7 +19337,7 @@
         <v>6.4952921995429194E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22">
       <c r="B81">
         <f t="shared" si="25"/>
         <v>7.5662068294467491E-2</v>
@@ -18895,7 +19419,7 @@
         <v>6.3739648079144798E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22">
       <c r="B82">
         <f t="shared" si="25"/>
         <v>7.4186438978288402E-2</v>
@@ -18977,7 +19501,7 @@
         <v>6.2301649928019898E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22">
       <c r="B83">
         <f t="shared" si="25"/>
         <v>7.3489889159756891E-2</v>
@@ -19059,7 +19583,7 @@
         <v>6.0343184852374096E-2</v>
       </c>
     </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22">
       <c r="B84">
         <f t="shared" si="25"/>
         <v>7.2966599652887501E-2</v>
@@ -19121,7 +19645,7 @@
         <v>6.1921054393240998E-2</v>
       </c>
       <c r="Q84">
-        <f t="shared" ref="Q84:AJ84" si="26">MAX(Q60,P61,Q62,R61)</f>
+        <f t="shared" ref="Q84:U84" si="26">MAX(Q60,P61,Q62,R61)</f>
         <v>6.1137458058487096E-2</v>
       </c>
       <c r="R84">
@@ -19141,7 +19665,7 @@
         <v>5.7777200788534697E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22">
       <c r="B85">
         <f t="shared" ref="B85:U90" si="27">MAX(B61,A62,B63,C62)</f>
         <v>7.2051869858441392E-2</v>
@@ -19223,7 +19747,7 @@
         <v>5.66735446302985E-2</v>
       </c>
     </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22">
       <c r="B86">
         <f t="shared" si="27"/>
         <v>7.1527642741723602E-2</v>
@@ -19305,7 +19829,7 @@
         <v>5.4209478637988993E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22">
       <c r="B87">
         <f t="shared" si="27"/>
         <v>7.0854745924271101E-2</v>
@@ -19387,7 +19911,7 @@
         <v>5.1352715500229698E-2</v>
       </c>
     </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22">
       <c r="B88">
         <f t="shared" si="27"/>
         <v>7.0481494008735698E-2</v>
@@ -19469,7 +19993,7 @@
         <v>4.7358785623959093E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22">
       <c r="B89">
         <f t="shared" si="27"/>
         <v>7.0111976158577796E-2</v>
@@ -19551,7 +20075,7 @@
         <v>4.3119964193370296E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22">
       <c r="B90">
         <f t="shared" si="27"/>
         <v>6.9861748404205198E-2</v>
@@ -19633,1672 +20157,2025 @@
         <v>3.4233517047563194E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B92" s="4" t="str">
-        <f t="shared" ref="B92:U92" si="28">IF(MAX(B47,C48,B49,A48)=B47,"^",IF(MAX(B47,C48,B49,A48)=C48,"&gt;",IF(MAX(B47,C48,B49,A48)=B49,"v",IF(MAX(B47,C48,B49,A48)=A48,"&lt;","?"))))</f>
+    <row r="92" spans="1:22">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6">
+        <v>0</v>
+      </c>
+      <c r="C92" s="6">
+        <f>B92+1</f>
+        <v>1</v>
+      </c>
+      <c r="D92" s="6">
+        <f>C92+1</f>
+        <v>2</v>
+      </c>
+      <c r="E92" s="6">
+        <f>D92+1</f>
+        <v>3</v>
+      </c>
+      <c r="F92" s="6">
+        <f>E92+1</f>
+        <v>4</v>
+      </c>
+      <c r="G92" s="6">
+        <f>F92+1</f>
+        <v>5</v>
+      </c>
+      <c r="H92" s="6">
+        <f>G92+1</f>
+        <v>6</v>
+      </c>
+      <c r="I92" s="6">
+        <f>H92+1</f>
+        <v>7</v>
+      </c>
+      <c r="J92" s="6">
+        <f>I92+1</f>
+        <v>8</v>
+      </c>
+      <c r="K92" s="6">
+        <f>J92+1</f>
+        <v>9</v>
+      </c>
+      <c r="L92" s="6">
+        <f>K92+1</f>
+        <v>10</v>
+      </c>
+      <c r="M92" s="6">
+        <f>L92+1</f>
+        <v>11</v>
+      </c>
+      <c r="N92" s="6">
+        <f>M92+1</f>
+        <v>12</v>
+      </c>
+      <c r="O92" s="6">
+        <f>N92+1</f>
+        <v>13</v>
+      </c>
+      <c r="P92" s="6">
+        <f>O92+1</f>
+        <v>14</v>
+      </c>
+      <c r="Q92" s="6">
+        <f>P92+1</f>
+        <v>15</v>
+      </c>
+      <c r="R92" s="6">
+        <f>Q92+1</f>
+        <v>16</v>
+      </c>
+      <c r="S92" s="6">
+        <f>R92+1</f>
+        <v>17</v>
+      </c>
+      <c r="T92" s="6">
+        <f>S92+1</f>
+        <v>18</v>
+      </c>
+      <c r="U92" s="6">
+        <f>T92+1</f>
+        <v>19</v>
+      </c>
+      <c r="V92" s="6"/>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93" s="6">
+        <v>0</v>
+      </c>
+      <c r="B93" s="4" t="str">
+        <f t="shared" ref="B93:U93" si="28">IF(MAX(B47,C48,B49,A48)=B47,"^",IF(MAX(B47,C48,B49,A48)=C48,"&gt;",IF(MAX(B47,C48,B49,A48)=B49,"v",IF(MAX(B47,C48,B49,A48)=A48,"&lt;","?"))))</f>
         <v>v</v>
       </c>
-      <c r="C92" s="4" t="str">
+      <c r="C93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>v</v>
       </c>
-      <c r="D92" s="4" t="str">
+      <c r="D93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>&gt;</v>
       </c>
-      <c r="E92" s="4" t="str">
+      <c r="E93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>v</v>
       </c>
-      <c r="F92" s="4" t="str">
+      <c r="F93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>v</v>
       </c>
-      <c r="G92" s="4" t="str">
+      <c r="G93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>&lt;</v>
       </c>
-      <c r="H92" s="4" t="str">
+      <c r="H93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>&lt;</v>
       </c>
-      <c r="I92" s="4" t="str">
+      <c r="I93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>&lt;</v>
       </c>
-      <c r="J92" s="4" t="str">
+      <c r="J93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>&lt;</v>
       </c>
-      <c r="K92" s="4" t="str">
+      <c r="K93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>&lt;</v>
       </c>
-      <c r="L92" s="4" t="str">
+      <c r="L93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>&lt;</v>
       </c>
-      <c r="M92" s="4" t="str">
+      <c r="M93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>&lt;</v>
       </c>
-      <c r="N92" s="4" t="str">
+      <c r="N93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>&lt;</v>
       </c>
-      <c r="O92" s="4" t="str">
+      <c r="O93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>&lt;</v>
       </c>
-      <c r="P92" s="4" t="str">
+      <c r="P93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>&lt;</v>
       </c>
-      <c r="Q92" s="4" t="str">
+      <c r="Q93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>&lt;</v>
       </c>
-      <c r="R92" s="4" t="str">
+      <c r="R93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>&lt;</v>
       </c>
-      <c r="S92" s="4" t="str">
+      <c r="S93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>&lt;</v>
       </c>
-      <c r="T92" s="4" t="str">
+      <c r="T93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>&lt;</v>
       </c>
-      <c r="U92" s="4" t="str">
+      <c r="U93" s="4" t="str">
         <f t="shared" si="28"/>
         <v>&lt;</v>
       </c>
+      <c r="V93" s="6">
+        <f>A93</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B93" s="4" t="str">
-        <f t="shared" ref="B93:U93" si="29">IF(MAX(B48,C49,B50,A49)=B48,"^",IF(MAX(B48,C49,B50,A49)=C49,"&gt;",IF(MAX(B48,C49,B50,A49)=B50,"v",IF(MAX(B48,C49,B50,A49)=A49,"&lt;","?"))))</f>
+    <row r="94" spans="1:22">
+      <c r="A94" s="6">
+        <f>A93+1</f>
+        <v>1</v>
+      </c>
+      <c r="B94" s="4" t="str">
+        <f t="shared" ref="B94:U94" si="29">IF(MAX(B48,C49,B50,A49)=B48,"^",IF(MAX(B48,C49,B50,A49)=C49,"&gt;",IF(MAX(B48,C49,B50,A49)=B50,"v",IF(MAX(B48,C49,B50,A49)=A49,"&lt;","?"))))</f>
         <v>v</v>
       </c>
-      <c r="C93" s="4" t="str">
+      <c r="C94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>v</v>
       </c>
-      <c r="D93" s="4" t="str">
+      <c r="D94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>&gt;</v>
       </c>
-      <c r="E93" s="4" t="str">
+      <c r="E94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>&gt;</v>
       </c>
-      <c r="F93" s="4" t="str">
+      <c r="F94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>v</v>
       </c>
-      <c r="G93" s="4" t="str">
+      <c r="G94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>v</v>
       </c>
-      <c r="H93" s="4" t="str">
+      <c r="H94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>v</v>
       </c>
-      <c r="I93" s="4" t="str">
+      <c r="I94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>&lt;</v>
       </c>
-      <c r="J93" s="4" t="str">
+      <c r="J94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>&lt;</v>
       </c>
-      <c r="K93" s="4" t="str">
+      <c r="K94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>&lt;</v>
       </c>
-      <c r="L93" s="4" t="str">
+      <c r="L94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>&lt;</v>
       </c>
-      <c r="M93" s="4" t="str">
+      <c r="M94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>&lt;</v>
       </c>
-      <c r="N93" s="4" t="str">
+      <c r="N94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>&lt;</v>
       </c>
-      <c r="O93" s="4" t="str">
+      <c r="O94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>&lt;</v>
       </c>
-      <c r="P93" s="4" t="str">
+      <c r="P94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>&lt;</v>
       </c>
-      <c r="Q93" s="4" t="str">
+      <c r="Q94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>&lt;</v>
       </c>
-      <c r="R93" s="4" t="str">
+      <c r="R94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>&lt;</v>
       </c>
-      <c r="S93" s="4" t="str">
+      <c r="S94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>&lt;</v>
       </c>
-      <c r="T93" s="4" t="str">
+      <c r="T94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>&lt;</v>
       </c>
-      <c r="U93" s="4" t="str">
+      <c r="U94" s="4" t="str">
         <f t="shared" si="29"/>
         <v>^</v>
       </c>
+      <c r="V94" s="6">
+        <f t="shared" ref="V94:V112" si="30">A94</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B94" s="4" t="str">
-        <f t="shared" ref="B94:U94" si="30">IF(MAX(B49,C50,B51,A50)=B49,"^",IF(MAX(B49,C50,B51,A50)=C50,"&gt;",IF(MAX(B49,C50,B51,A50)=B51,"v",IF(MAX(B49,C50,B51,A50)=A50,"&lt;","?"))))</f>
+    <row r="95" spans="1:22">
+      <c r="A95" s="6">
+        <f t="shared" ref="A95:A112" si="31">A94+1</f>
+        <v>2</v>
+      </c>
+      <c r="B95" s="4" t="str">
+        <f t="shared" ref="B95:U95" si="32">IF(MAX(B49,C50,B51,A50)=B49,"^",IF(MAX(B49,C50,B51,A50)=C50,"&gt;",IF(MAX(B49,C50,B51,A50)=B51,"v",IF(MAX(B49,C50,B51,A50)=A50,"&lt;","?"))))</f>
         <v>&gt;</v>
       </c>
-      <c r="C94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>&gt;</v>
-      </c>
-      <c r="D94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>v</v>
-      </c>
-      <c r="E94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>&gt;</v>
-      </c>
-      <c r="F94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>v</v>
-      </c>
-      <c r="G94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>v</v>
-      </c>
-      <c r="H94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>&lt;</v>
-      </c>
-      <c r="I94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>&lt;</v>
-      </c>
-      <c r="J94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>&lt;</v>
-      </c>
-      <c r="K94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>&lt;</v>
-      </c>
-      <c r="L94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>&lt;</v>
-      </c>
-      <c r="M94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>&lt;</v>
-      </c>
-      <c r="N94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>&lt;</v>
-      </c>
-      <c r="O94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>&lt;</v>
-      </c>
-      <c r="P94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>&lt;</v>
-      </c>
-      <c r="Q94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>&lt;</v>
-      </c>
-      <c r="R94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>&lt;</v>
-      </c>
-      <c r="S94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>&lt;</v>
-      </c>
-      <c r="T94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>&lt;</v>
-      </c>
-      <c r="U94" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>^</v>
-      </c>
-    </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B95" s="4" t="str">
-        <f t="shared" ref="B95:U95" si="31">IF(MAX(B50,C51,B52,A51)=B50,"^",IF(MAX(B50,C51,B52,A51)=C51,"&gt;",IF(MAX(B50,C51,B52,A51)=B52,"v",IF(MAX(B50,C51,B52,A51)=A51,"&lt;","?"))))</f>
-        <v>&gt;</v>
-      </c>
       <c r="C95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&gt;</v>
-      </c>
-      <c r="D95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&gt;</v>
-      </c>
-      <c r="E95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&gt;</v>
-      </c>
-      <c r="F95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&gt;</v>
-      </c>
-      <c r="G95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>v</v>
-      </c>
-      <c r="H95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&lt;</v>
-      </c>
-      <c r="I95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&lt;</v>
-      </c>
-      <c r="J95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&lt;</v>
-      </c>
-      <c r="K95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&lt;</v>
-      </c>
-      <c r="L95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&lt;</v>
-      </c>
-      <c r="M95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&lt;</v>
-      </c>
-      <c r="N95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&lt;</v>
-      </c>
-      <c r="O95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&lt;</v>
-      </c>
-      <c r="P95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&lt;</v>
-      </c>
-      <c r="Q95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&lt;</v>
-      </c>
-      <c r="R95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&lt;</v>
-      </c>
-      <c r="S95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&lt;</v>
-      </c>
-      <c r="T95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>^</v>
-      </c>
-      <c r="U95" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>^</v>
-      </c>
-    </row>
-    <row r="96" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B96" s="4" t="str">
-        <f t="shared" ref="B96:U96" si="32">IF(MAX(B51,C52,B53,A52)=B51,"^",IF(MAX(B51,C52,B53,A52)=C52,"&gt;",IF(MAX(B51,C52,B53,A52)=B53,"v",IF(MAX(B51,C52,B53,A52)=A52,"&lt;","?"))))</f>
-        <v>&gt;</v>
-      </c>
-      <c r="C96" s="4" t="str">
         <f t="shared" si="32"/>
         <v>&gt;</v>
       </c>
-      <c r="D96" s="4" t="str">
+      <c r="D95" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>v</v>
+      </c>
+      <c r="E95" s="4" t="str">
         <f t="shared" si="32"/>
         <v>&gt;</v>
       </c>
-      <c r="E96" s="4" t="str">
-        <f t="shared" si="32"/>
-        <v>&gt;</v>
-      </c>
-      <c r="F96" s="4" t="str">
-        <f t="shared" si="32"/>
-        <v>&gt;</v>
-      </c>
-      <c r="G96" s="4" t="str">
+      <c r="F95" s="4" t="str">
         <f t="shared" si="32"/>
         <v>v</v>
       </c>
-      <c r="H96" s="4" t="str">
+      <c r="G95" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>&lt;</v>
-      </c>
-      <c r="I96" s="4" t="str">
+        <v>v</v>
+      </c>
+      <c r="H95" s="4" t="str">
         <f t="shared" si="32"/>
         <v>&lt;</v>
       </c>
-      <c r="J96" s="4" t="str">
+      <c r="I95" s="4" t="str">
         <f t="shared" si="32"/>
         <v>&lt;</v>
       </c>
-      <c r="K96" s="4" t="str">
+      <c r="J95" s="4" t="str">
         <f t="shared" si="32"/>
         <v>&lt;</v>
       </c>
-      <c r="L96" s="4" t="str">
+      <c r="K95" s="4" t="str">
         <f t="shared" si="32"/>
         <v>&lt;</v>
       </c>
-      <c r="M96" s="4" t="str">
+      <c r="L95" s="4" t="str">
         <f t="shared" si="32"/>
         <v>&lt;</v>
       </c>
-      <c r="N96" s="4" t="str">
+      <c r="M95" s="4" t="str">
         <f t="shared" si="32"/>
         <v>&lt;</v>
       </c>
-      <c r="O96" s="4" t="str">
+      <c r="N95" s="4" t="str">
         <f t="shared" si="32"/>
         <v>&lt;</v>
       </c>
-      <c r="P96" s="4" t="str">
+      <c r="O95" s="4" t="str">
         <f t="shared" si="32"/>
         <v>&lt;</v>
       </c>
-      <c r="Q96" s="4" t="str">
+      <c r="P95" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>^</v>
-      </c>
-      <c r="R96" s="4" t="str">
+        <v>&lt;</v>
+      </c>
+      <c r="Q95" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>^</v>
-      </c>
-      <c r="S96" s="4" t="str">
+        <v>&lt;</v>
+      </c>
+      <c r="R95" s="4" t="str">
         <f t="shared" si="32"/>
         <v>&lt;</v>
       </c>
-      <c r="T96" s="4" t="str">
+      <c r="S95" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>^</v>
-      </c>
-      <c r="U96" s="4" t="str">
+        <v>&lt;</v>
+      </c>
+      <c r="T95" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>^</v>
+        <v>&lt;</v>
+      </c>
+      <c r="U95" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>^</v>
+      </c>
+      <c r="V95" s="6">
+        <f t="shared" si="30"/>
+        <v>2</v>
       </c>
     </row>
-    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B97" s="4" t="str">
-        <f t="shared" ref="B97:U97" si="33">IF(MAX(B52,C53,B54,A53)=B52,"^",IF(MAX(B52,C53,B54,A53)=C53,"&gt;",IF(MAX(B52,C53,B54,A53)=B54,"v",IF(MAX(B52,C53,B54,A53)=A53,"&lt;","?"))))</f>
+    <row r="96" spans="1:22">
+      <c r="A96" s="6">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="B96" s="4" t="str">
+        <f t="shared" ref="B96:U96" si="33">IF(MAX(B50,C51,B52,A51)=B50,"^",IF(MAX(B50,C51,B52,A51)=C51,"&gt;",IF(MAX(B50,C51,B52,A51)=B52,"v",IF(MAX(B50,C51,B52,A51)=A51,"&lt;","?"))))</f>
         <v>&gt;</v>
       </c>
-      <c r="C97" s="4" t="str">
+      <c r="C96" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>^</v>
-      </c>
-      <c r="D97" s="4" t="str">
+        <v>&gt;</v>
+      </c>
+      <c r="D96" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>^</v>
-      </c>
-      <c r="E97" s="4" t="str">
+        <v>&gt;</v>
+      </c>
+      <c r="E96" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>&gt;</v>
+      </c>
+      <c r="F96" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>&gt;</v>
+      </c>
+      <c r="G96" s="4" t="str">
         <f t="shared" si="33"/>
         <v>v</v>
       </c>
-      <c r="F97" s="4" t="str">
+      <c r="H96" s="4" t="str">
         <f t="shared" si="33"/>
+        <v>&lt;</v>
+      </c>
+      <c r="I96" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>&lt;</v>
+      </c>
+      <c r="J96" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>&lt;</v>
+      </c>
+      <c r="K96" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>&lt;</v>
+      </c>
+      <c r="L96" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>&lt;</v>
+      </c>
+      <c r="M96" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>&lt;</v>
+      </c>
+      <c r="N96" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>&lt;</v>
+      </c>
+      <c r="O96" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>&lt;</v>
+      </c>
+      <c r="P96" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>&lt;</v>
+      </c>
+      <c r="Q96" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>&lt;</v>
+      </c>
+      <c r="R96" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>&lt;</v>
+      </c>
+      <c r="S96" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>&lt;</v>
+      </c>
+      <c r="T96" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>^</v>
+      </c>
+      <c r="U96" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>^</v>
+      </c>
+      <c r="V96" s="6">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="A97" s="6">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="B97" s="4" t="str">
+        <f t="shared" ref="B97:U97" si="34">IF(MAX(B51,C52,B53,A52)=B51,"^",IF(MAX(B51,C52,B53,A52)=C52,"&gt;",IF(MAX(B51,C52,B53,A52)=B53,"v",IF(MAX(B51,C52,B53,A52)=A52,"&lt;","?"))))</f>
         <v>&gt;</v>
       </c>
-      <c r="G97" s="5" t="str">
-        <f t="shared" si="33"/>
-        <v>v</v>
-      </c>
-      <c r="H97" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>&lt;</v>
-      </c>
-      <c r="I97" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>&lt;</v>
-      </c>
-      <c r="J97" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>&lt;</v>
-      </c>
-      <c r="K97" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>&lt;</v>
-      </c>
-      <c r="L97" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>&lt;</v>
-      </c>
-      <c r="M97" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>&lt;</v>
-      </c>
-      <c r="N97" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>&lt;</v>
-      </c>
-      <c r="O97" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>&lt;</v>
-      </c>
-      <c r="P97" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>&lt;</v>
-      </c>
-      <c r="Q97" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>&lt;</v>
-      </c>
-      <c r="R97" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>^</v>
-      </c>
-      <c r="S97" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>^</v>
-      </c>
-      <c r="T97" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>^</v>
-      </c>
-      <c r="U97" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>^</v>
-      </c>
-    </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B98" s="4" t="str">
-        <f t="shared" ref="B98:U98" si="34">IF(MAX(B53,C54,B55,A54)=B53,"^",IF(MAX(B53,C54,B55,A54)=C54,"&gt;",IF(MAX(B53,C54,B55,A54)=B55,"v",IF(MAX(B53,C54,B55,A54)=A54,"&lt;","?"))))</f>
-        <v>&gt;</v>
-      </c>
-      <c r="C98" s="4" t="str">
-        <f t="shared" si="34"/>
-        <v>^</v>
-      </c>
-      <c r="D98" s="4" t="str">
+      <c r="C97" s="4" t="str">
         <f t="shared" si="34"/>
         <v>&gt;</v>
       </c>
-      <c r="E98" s="4" t="str">
+      <c r="D97" s="4" t="str">
         <f t="shared" si="34"/>
         <v>&gt;</v>
       </c>
-      <c r="F98" s="4" t="str">
+      <c r="E97" s="4" t="str">
         <f t="shared" si="34"/>
         <v>&gt;</v>
       </c>
-      <c r="G98" s="4" t="str">
+      <c r="F97" s="4" t="str">
         <f t="shared" si="34"/>
-        <v>^</v>
-      </c>
-      <c r="H98" s="4" t="str">
+        <v>&gt;</v>
+      </c>
+      <c r="G97" s="4" t="str">
         <f t="shared" si="34"/>
-        <v>&lt;</v>
-      </c>
-      <c r="I98" s="4" t="str">
+        <v>v</v>
+      </c>
+      <c r="H97" s="4" t="str">
         <f t="shared" si="34"/>
         <v>&lt;</v>
       </c>
-      <c r="J98" s="4" t="str">
+      <c r="I97" s="4" t="str">
         <f t="shared" si="34"/>
         <v>&lt;</v>
       </c>
-      <c r="K98" s="4" t="str">
+      <c r="J97" s="4" t="str">
         <f t="shared" si="34"/>
         <v>&lt;</v>
       </c>
-      <c r="L98" s="4" t="str">
+      <c r="K97" s="4" t="str">
         <f t="shared" si="34"/>
         <v>&lt;</v>
       </c>
-      <c r="M98" s="4" t="str">
+      <c r="L97" s="4" t="str">
         <f t="shared" si="34"/>
         <v>&lt;</v>
       </c>
-      <c r="N98" s="4" t="str">
+      <c r="M97" s="4" t="str">
         <f t="shared" si="34"/>
         <v>&lt;</v>
       </c>
-      <c r="O98" s="4" t="str">
+      <c r="N97" s="4" t="str">
         <f t="shared" si="34"/>
-        <v>^</v>
-      </c>
-      <c r="P98" s="4" t="str">
+        <v>&lt;</v>
+      </c>
+      <c r="O97" s="4" t="str">
         <f t="shared" si="34"/>
-        <v>^</v>
-      </c>
-      <c r="Q98" s="4" t="str">
+        <v>&lt;</v>
+      </c>
+      <c r="P97" s="4" t="str">
         <f t="shared" si="34"/>
-        <v>^</v>
-      </c>
-      <c r="R98" s="4" t="str">
+        <v>&lt;</v>
+      </c>
+      <c r="Q97" s="4" t="str">
         <f t="shared" si="34"/>
         <v>^</v>
       </c>
-      <c r="S98" s="4" t="str">
+      <c r="R97" s="4" t="str">
         <f t="shared" si="34"/>
-        <v>&lt;</v>
-      </c>
-      <c r="T98" s="4" t="str">
+        <v>^</v>
+      </c>
+      <c r="S97" s="4" t="str">
         <f t="shared" si="34"/>
-        <v>^</v>
-      </c>
-      <c r="U98" s="4" t="str">
+        <v>&lt;</v>
+      </c>
+      <c r="T97" s="4" t="str">
         <f t="shared" si="34"/>
         <v>^</v>
       </c>
+      <c r="U97" s="4" t="str">
+        <f t="shared" si="34"/>
+        <v>^</v>
+      </c>
+      <c r="V97" s="6">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B99" s="4" t="str">
-        <f t="shared" ref="B99:U99" si="35">IF(MAX(B54,C55,B56,A55)=B54,"^",IF(MAX(B54,C55,B56,A55)=C55,"&gt;",IF(MAX(B54,C55,B56,A55)=B56,"v",IF(MAX(B54,C55,B56,A55)=A55,"&lt;","?"))))</f>
-        <v>^</v>
-      </c>
-      <c r="C99" s="4" t="str">
+    <row r="98" spans="1:22">
+      <c r="A98" s="6">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="B98" s="4" t="str">
+        <f t="shared" ref="B98:U98" si="35">IF(MAX(B52,C53,B54,A53)=B52,"^",IF(MAX(B52,C53,B54,A53)=C53,"&gt;",IF(MAX(B52,C53,B54,A53)=B54,"v",IF(MAX(B52,C53,B54,A53)=A53,"&lt;","?"))))</f>
+        <v>&gt;</v>
+      </c>
+      <c r="C98" s="4" t="str">
         <f t="shared" si="35"/>
         <v>^</v>
       </c>
-      <c r="D99" s="4" t="str">
+      <c r="D98" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v>^</v>
+      </c>
+      <c r="E98" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v>v</v>
+      </c>
+      <c r="F98" s="4" t="str">
         <f t="shared" si="35"/>
         <v>&gt;</v>
       </c>
-      <c r="E99" s="4" t="str">
+      <c r="G98" s="5" t="str">
         <f t="shared" si="35"/>
+        <v>v</v>
+      </c>
+      <c r="H98" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v>&lt;</v>
+      </c>
+      <c r="I98" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v>&lt;</v>
+      </c>
+      <c r="J98" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v>&lt;</v>
+      </c>
+      <c r="K98" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v>&lt;</v>
+      </c>
+      <c r="L98" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v>&lt;</v>
+      </c>
+      <c r="M98" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v>&lt;</v>
+      </c>
+      <c r="N98" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v>&lt;</v>
+      </c>
+      <c r="O98" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v>&lt;</v>
+      </c>
+      <c r="P98" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v>&lt;</v>
+      </c>
+      <c r="Q98" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v>&lt;</v>
+      </c>
+      <c r="R98" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v>^</v>
+      </c>
+      <c r="S98" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v>^</v>
+      </c>
+      <c r="T98" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v>^</v>
+      </c>
+      <c r="U98" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v>^</v>
+      </c>
+      <c r="V98" s="6">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
+      <c r="A99" s="6">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="B99" s="4" t="str">
+        <f t="shared" ref="B99:U99" si="36">IF(MAX(B53,C54,B55,A54)=B53,"^",IF(MAX(B53,C54,B55,A54)=C54,"&gt;",IF(MAX(B53,C54,B55,A54)=B55,"v",IF(MAX(B53,C54,B55,A54)=A54,"&lt;","?"))))</f>
         <v>&gt;</v>
       </c>
-      <c r="F99" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>^</v>
-      </c>
-      <c r="G99" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>^</v>
-      </c>
-      <c r="H99" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;</v>
-      </c>
-      <c r="I99" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;</v>
-      </c>
-      <c r="J99" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>^</v>
-      </c>
-      <c r="K99" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;</v>
-      </c>
-      <c r="L99" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;</v>
-      </c>
-      <c r="M99" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;</v>
-      </c>
-      <c r="N99" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;</v>
-      </c>
-      <c r="O99" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;</v>
-      </c>
-      <c r="P99" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;</v>
-      </c>
-      <c r="Q99" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>^</v>
-      </c>
-      <c r="R99" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>^</v>
-      </c>
-      <c r="S99" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>^</v>
-      </c>
-      <c r="T99" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>^</v>
-      </c>
-      <c r="U99" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>^</v>
-      </c>
-    </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B100" s="4" t="str">
-        <f t="shared" ref="B100:U100" si="36">IF(MAX(B55,C56,B57,A56)=B55,"^",IF(MAX(B55,C56,B57,A56)=C56,"&gt;",IF(MAX(B55,C56,B57,A56)=B57,"v",IF(MAX(B55,C56,B57,A56)=A56,"&lt;","?"))))</f>
-        <v>^</v>
-      </c>
-      <c r="C100" s="4" t="str">
+      <c r="C99" s="4" t="str">
         <f t="shared" si="36"/>
         <v>^</v>
       </c>
-      <c r="D100" s="4" t="str">
+      <c r="D99" s="4" t="str">
         <f t="shared" si="36"/>
         <v>&gt;</v>
       </c>
-      <c r="E100" s="4" t="str">
+      <c r="E99" s="4" t="str">
         <f t="shared" si="36"/>
         <v>&gt;</v>
       </c>
-      <c r="F100" s="4" t="str">
+      <c r="F99" s="4" t="str">
         <f t="shared" si="36"/>
-        <v>^</v>
-      </c>
-      <c r="G100" s="4" t="str">
+        <v>&gt;</v>
+      </c>
+      <c r="G99" s="4" t="str">
         <f t="shared" si="36"/>
         <v>^</v>
       </c>
-      <c r="H100" s="4" t="str">
+      <c r="H99" s="4" t="str">
         <f t="shared" si="36"/>
-        <v>^</v>
-      </c>
-      <c r="I100" s="4" t="str">
+        <v>&lt;</v>
+      </c>
+      <c r="I99" s="4" t="str">
         <f t="shared" si="36"/>
-        <v>^</v>
-      </c>
-      <c r="J100" s="4" t="str">
+        <v>&lt;</v>
+      </c>
+      <c r="J99" s="4" t="str">
         <f t="shared" si="36"/>
         <v>&lt;</v>
       </c>
-      <c r="K100" s="4" t="str">
+      <c r="K99" s="4" t="str">
         <f t="shared" si="36"/>
         <v>&lt;</v>
       </c>
-      <c r="L100" s="4" t="str">
+      <c r="L99" s="4" t="str">
         <f t="shared" si="36"/>
         <v>&lt;</v>
       </c>
-      <c r="M100" s="4" t="str">
+      <c r="M99" s="4" t="str">
         <f t="shared" si="36"/>
         <v>&lt;</v>
       </c>
-      <c r="N100" s="4" t="str">
+      <c r="N99" s="4" t="str">
         <f t="shared" si="36"/>
         <v>&lt;</v>
       </c>
-      <c r="O100" s="4" t="str">
+      <c r="O99" s="4" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;</v>
-      </c>
-      <c r="P100" s="4" t="str">
+        <v>^</v>
+      </c>
+      <c r="P99" s="4" t="str">
         <f t="shared" si="36"/>
         <v>^</v>
       </c>
-      <c r="Q100" s="4" t="str">
+      <c r="Q99" s="4" t="str">
         <f t="shared" si="36"/>
         <v>^</v>
       </c>
-      <c r="R100" s="4" t="str">
+      <c r="R99" s="4" t="str">
         <f t="shared" si="36"/>
         <v>^</v>
       </c>
-      <c r="S100" s="4" t="str">
+      <c r="S99" s="4" t="str">
         <f t="shared" si="36"/>
-        <v>^</v>
-      </c>
-      <c r="T100" s="4" t="str">
+        <v>&lt;</v>
+      </c>
+      <c r="T99" s="4" t="str">
         <f t="shared" si="36"/>
         <v>^</v>
       </c>
-      <c r="U100" s="4" t="str">
+      <c r="U99" s="4" t="str">
         <f t="shared" si="36"/>
         <v>^</v>
       </c>
+      <c r="V99" s="6">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B101" s="4" t="str">
-        <f t="shared" ref="B101:U101" si="37">IF(MAX(B56,C57,B58,A57)=B56,"^",IF(MAX(B56,C57,B58,A57)=C57,"&gt;",IF(MAX(B56,C57,B58,A57)=B58,"v",IF(MAX(B56,C57,B58,A57)=A57,"&lt;","?"))))</f>
-        <v>^</v>
-      </c>
-      <c r="C101" s="4" t="str">
+    <row r="100" spans="1:22">
+      <c r="A100" s="6">
+        <f t="shared" si="31"/>
+        <v>7</v>
+      </c>
+      <c r="B100" s="4" t="str">
+        <f t="shared" ref="B100:U100" si="37">IF(MAX(B54,C55,B56,A55)=B54,"^",IF(MAX(B54,C55,B56,A55)=C55,"&gt;",IF(MAX(B54,C55,B56,A55)=B56,"v",IF(MAX(B54,C55,B56,A55)=A55,"&lt;","?"))))</f>
+        <v>^</v>
+      </c>
+      <c r="C100" s="4" t="str">
         <f t="shared" si="37"/>
         <v>^</v>
       </c>
-      <c r="D101" s="4" t="str">
+      <c r="D100" s="4" t="str">
         <f t="shared" si="37"/>
         <v>&gt;</v>
       </c>
+      <c r="E100" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>&gt;</v>
+      </c>
+      <c r="F100" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>^</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>^</v>
+      </c>
+      <c r="H100" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>&lt;</v>
+      </c>
+      <c r="I100" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>&lt;</v>
+      </c>
+      <c r="J100" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>^</v>
+      </c>
+      <c r="K100" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>&lt;</v>
+      </c>
+      <c r="L100" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>&lt;</v>
+      </c>
+      <c r="M100" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>&lt;</v>
+      </c>
+      <c r="N100" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>&lt;</v>
+      </c>
+      <c r="O100" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>&lt;</v>
+      </c>
+      <c r="P100" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>&lt;</v>
+      </c>
+      <c r="Q100" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>^</v>
+      </c>
+      <c r="R100" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>^</v>
+      </c>
+      <c r="S100" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>^</v>
+      </c>
+      <c r="T100" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>^</v>
+      </c>
+      <c r="U100" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>^</v>
+      </c>
+      <c r="V100" s="6">
+        <f t="shared" si="30"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="A101" s="6">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="B101" s="4" t="str">
+        <f t="shared" ref="B101:U101" si="38">IF(MAX(B55,C56,B57,A56)=B55,"^",IF(MAX(B55,C56,B57,A56)=C56,"&gt;",IF(MAX(B55,C56,B57,A56)=B57,"v",IF(MAX(B55,C56,B57,A56)=A56,"&lt;","?"))))</f>
+        <v>^</v>
+      </c>
+      <c r="C101" s="4" t="str">
+        <f t="shared" si="38"/>
+        <v>^</v>
+      </c>
+      <c r="D101" s="4" t="str">
+        <f t="shared" si="38"/>
+        <v>&gt;</v>
+      </c>
       <c r="E101" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>^</v>
+        <f t="shared" si="38"/>
+        <v>&gt;</v>
       </c>
       <c r="F101" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
       <c r="G101" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
       <c r="H101" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>&lt;</v>
+        <f t="shared" si="38"/>
+        <v>^</v>
       </c>
       <c r="I101" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
       <c r="J101" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>&lt;</v>
       </c>
       <c r="K101" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>&lt;</v>
       </c>
       <c r="L101" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>&lt;</v>
       </c>
       <c r="M101" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>^</v>
+        <f t="shared" si="38"/>
+        <v>&lt;</v>
       </c>
       <c r="N101" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>&lt;</v>
       </c>
       <c r="O101" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>&lt;</v>
       </c>
       <c r="P101" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>&lt;</v>
+        <f t="shared" si="38"/>
+        <v>^</v>
       </c>
       <c r="Q101" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
       <c r="R101" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
       <c r="S101" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
       <c r="T101" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>^</v>
       </c>
       <c r="U101" s="4" t="str">
-        <f t="shared" si="37"/>
-        <v>^</v>
+        <f t="shared" si="38"/>
+        <v>^</v>
+      </c>
+      <c r="V101" s="6">
+        <f t="shared" si="30"/>
+        <v>8</v>
       </c>
     </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22">
+      <c r="A102" s="6">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
       <c r="B102" s="4" t="str">
-        <f t="shared" ref="B102:U102" si="38">IF(MAX(B57,C58,B59,A58)=B57,"^",IF(MAX(B57,C58,B59,A58)=C58,"&gt;",IF(MAX(B57,C58,B59,A58)=B59,"v",IF(MAX(B57,C58,B59,A58)=A58,"&lt;","?"))))</f>
+        <f t="shared" ref="B102:U102" si="39">IF(MAX(B56,C57,B58,A57)=B56,"^",IF(MAX(B56,C57,B58,A57)=C57,"&gt;",IF(MAX(B56,C57,B58,A57)=B58,"v",IF(MAX(B56,C57,B58,A57)=A57,"&lt;","?"))))</f>
         <v>^</v>
       </c>
       <c r="C102" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>^</v>
       </c>
       <c r="D102" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>^</v>
+        <f t="shared" si="39"/>
+        <v>&gt;</v>
       </c>
       <c r="E102" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>^</v>
       </c>
       <c r="F102" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>^</v>
       </c>
       <c r="G102" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>^</v>
       </c>
       <c r="H102" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>&lt;</v>
       </c>
       <c r="I102" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>&lt;</v>
+        <f t="shared" si="39"/>
+        <v>^</v>
       </c>
       <c r="J102" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>^</v>
+        <f t="shared" si="39"/>
+        <v>&lt;</v>
       </c>
       <c r="K102" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>^</v>
+        <f t="shared" si="39"/>
+        <v>&lt;</v>
       </c>
       <c r="L102" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>&lt;</v>
       </c>
       <c r="M102" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>^</v>
       </c>
       <c r="N102" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>&lt;</v>
       </c>
       <c r="O102" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>^</v>
+        <f t="shared" si="39"/>
+        <v>&lt;</v>
       </c>
       <c r="P102" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>^</v>
+        <f t="shared" si="39"/>
+        <v>&lt;</v>
       </c>
       <c r="Q102" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>^</v>
       </c>
       <c r="R102" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>^</v>
       </c>
       <c r="S102" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>^</v>
       </c>
       <c r="T102" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>^</v>
       </c>
       <c r="U102" s="4" t="str">
-        <f t="shared" si="38"/>
-        <v>^</v>
+        <f t="shared" si="39"/>
+        <v>^</v>
+      </c>
+      <c r="V102" s="6">
+        <f t="shared" si="30"/>
+        <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22">
+      <c r="A103" s="6">
+        <f t="shared" si="31"/>
+        <v>10</v>
+      </c>
       <c r="B103" s="4" t="str">
-        <f t="shared" ref="B103:U103" si="39">IF(MAX(B58,C59,B60,A59)=B58,"^",IF(MAX(B58,C59,B60,A59)=C59,"&gt;",IF(MAX(B58,C59,B60,A59)=B60,"v",IF(MAX(B58,C59,B60,A59)=A59,"&lt;","?"))))</f>
+        <f t="shared" ref="B103:U103" si="40">IF(MAX(B57,C58,B59,A58)=B57,"^",IF(MAX(B57,C58,B59,A58)=C58,"&gt;",IF(MAX(B57,C58,B59,A58)=B59,"v",IF(MAX(B57,C58,B59,A58)=A58,"&lt;","?"))))</f>
         <v>^</v>
       </c>
       <c r="C103" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
       <c r="D103" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
       <c r="E103" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
       <c r="F103" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
       <c r="G103" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
       <c r="H103" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>^</v>
+        <f t="shared" si="40"/>
+        <v>&lt;</v>
       </c>
       <c r="I103" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>^</v>
+        <f t="shared" si="40"/>
+        <v>&lt;</v>
       </c>
       <c r="J103" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
       <c r="K103" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
       <c r="L103" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>&lt;</v>
       </c>
       <c r="M103" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>&lt;</v>
+        <f t="shared" si="40"/>
+        <v>^</v>
       </c>
       <c r="N103" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>^</v>
+        <f t="shared" si="40"/>
+        <v>&lt;</v>
       </c>
       <c r="O103" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
       <c r="P103" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>&lt;</v>
+        <f t="shared" si="40"/>
+        <v>^</v>
       </c>
       <c r="Q103" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
       <c r="R103" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
       <c r="S103" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
       <c r="T103" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>^</v>
       </c>
       <c r="U103" s="4" t="str">
-        <f t="shared" si="39"/>
-        <v>^</v>
+        <f t="shared" si="40"/>
+        <v>^</v>
+      </c>
+      <c r="V103" s="6">
+        <f t="shared" si="30"/>
+        <v>10</v>
       </c>
     </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22">
+      <c r="A104" s="6">
+        <f t="shared" si="31"/>
+        <v>11</v>
+      </c>
       <c r="B104" s="4" t="str">
-        <f t="shared" ref="B104:U104" si="40">IF(MAX(B59,C60,B61,A60)=B59,"^",IF(MAX(B59,C60,B61,A60)=C60,"&gt;",IF(MAX(B59,C60,B61,A60)=B61,"v",IF(MAX(B59,C60,B61,A60)=A60,"&lt;","?"))))</f>
+        <f t="shared" ref="B104:U104" si="41">IF(MAX(B58,C59,B60,A59)=B58,"^",IF(MAX(B58,C59,B60,A59)=C59,"&gt;",IF(MAX(B58,C59,B60,A59)=B60,"v",IF(MAX(B58,C59,B60,A59)=A59,"&lt;","?"))))</f>
         <v>^</v>
       </c>
       <c r="C104" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>^</v>
       </c>
       <c r="D104" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>^</v>
       </c>
       <c r="E104" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>^</v>
       </c>
       <c r="F104" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>^</v>
       </c>
       <c r="G104" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>^</v>
       </c>
       <c r="H104" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>^</v>
       </c>
       <c r="I104" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>^</v>
       </c>
       <c r="J104" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>^</v>
       </c>
       <c r="K104" s="4" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;</v>
+        <f t="shared" si="41"/>
+        <v>^</v>
       </c>
       <c r="L104" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>&lt;</v>
       </c>
       <c r="M104" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>&lt;</v>
       </c>
       <c r="N104" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>^</v>
       </c>
       <c r="O104" s="4" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;</v>
+        <f t="shared" si="41"/>
+        <v>^</v>
       </c>
       <c r="P104" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>&lt;</v>
       </c>
       <c r="Q104" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>^</v>
       </c>
       <c r="R104" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>^</v>
       </c>
       <c r="S104" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>^</v>
       </c>
       <c r="T104" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>^</v>
       </c>
       <c r="U104" s="4" t="str">
-        <f t="shared" si="40"/>
-        <v>^</v>
+        <f t="shared" si="41"/>
+        <v>^</v>
+      </c>
+      <c r="V104" s="6">
+        <f t="shared" si="30"/>
+        <v>11</v>
       </c>
     </row>
-    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22">
+      <c r="A105" s="6">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
       <c r="B105" s="4" t="str">
-        <f t="shared" ref="B105:U105" si="41">IF(MAX(B60,C61,B62,A61)=B60,"^",IF(MAX(B60,C61,B62,A61)=C61,"&gt;",IF(MAX(B60,C61,B62,A61)=B62,"v",IF(MAX(B60,C61,B62,A61)=A61,"&lt;","?"))))</f>
+        <f t="shared" ref="B105:U105" si="42">IF(MAX(B59,C60,B61,A60)=B59,"^",IF(MAX(B59,C60,B61,A60)=C60,"&gt;",IF(MAX(B59,C60,B61,A60)=B61,"v",IF(MAX(B59,C60,B61,A60)=A60,"&lt;","?"))))</f>
         <v>^</v>
       </c>
       <c r="C105" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>^</v>
       </c>
       <c r="D105" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>^</v>
       </c>
       <c r="E105" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>^</v>
       </c>
       <c r="F105" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>^</v>
       </c>
       <c r="G105" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>^</v>
       </c>
       <c r="H105" s="4" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;</v>
+        <f t="shared" si="42"/>
+        <v>^</v>
       </c>
       <c r="I105" s="4" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;</v>
+        <f t="shared" si="42"/>
+        <v>^</v>
       </c>
       <c r="J105" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>^</v>
       </c>
       <c r="K105" s="4" t="str">
-        <f t="shared" si="41"/>
-        <v>^</v>
+        <f t="shared" si="42"/>
+        <v>&lt;</v>
       </c>
       <c r="L105" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>&lt;</v>
       </c>
       <c r="M105" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>&lt;</v>
       </c>
       <c r="N105" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>^</v>
       </c>
       <c r="O105" s="4" t="str">
-        <f t="shared" si="41"/>
-        <v>^</v>
+        <f t="shared" si="42"/>
+        <v>&lt;</v>
       </c>
       <c r="P105" s="4" t="str">
-        <f t="shared" si="41"/>
-        <v>^</v>
+        <f t="shared" si="42"/>
+        <v>&lt;</v>
       </c>
       <c r="Q105" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
+        <v>^</v>
+      </c>
+      <c r="R105" s="4" t="str">
+        <f t="shared" si="42"/>
+        <v>^</v>
+      </c>
+      <c r="S105" s="4" t="str">
+        <f t="shared" si="42"/>
+        <v>^</v>
+      </c>
+      <c r="T105" s="4" t="str">
+        <f t="shared" si="42"/>
+        <v>^</v>
+      </c>
+      <c r="U105" s="4" t="str">
+        <f t="shared" si="42"/>
+        <v>^</v>
+      </c>
+      <c r="V105" s="6">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22">
+      <c r="A106" s="6">
+        <f t="shared" si="31"/>
+        <v>13</v>
+      </c>
+      <c r="B106" s="4" t="str">
+        <f t="shared" ref="B106:U106" si="43">IF(MAX(B60,C61,B62,A61)=B60,"^",IF(MAX(B60,C61,B62,A61)=C61,"&gt;",IF(MAX(B60,C61,B62,A61)=B62,"v",IF(MAX(B60,C61,B62,A61)=A61,"&lt;","?"))))</f>
+        <v>^</v>
+      </c>
+      <c r="C106" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>^</v>
+      </c>
+      <c r="D106" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>^</v>
+      </c>
+      <c r="E106" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>^</v>
+      </c>
+      <c r="F106" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>^</v>
+      </c>
+      <c r="G106" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>^</v>
+      </c>
+      <c r="H106" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>&lt;</v>
+      </c>
+      <c r="I106" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>&lt;</v>
+      </c>
+      <c r="J106" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>^</v>
+      </c>
+      <c r="K106" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>^</v>
+      </c>
+      <c r="L106" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>&lt;</v>
+      </c>
+      <c r="M106" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>&lt;</v>
+      </c>
+      <c r="N106" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>^</v>
+      </c>
+      <c r="O106" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>^</v>
+      </c>
+      <c r="P106" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>^</v>
+      </c>
+      <c r="Q106" s="4" t="str">
+        <f t="shared" si="43"/>
         <v>v</v>
       </c>
-      <c r="R105" s="4" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;</v>
-      </c>
-      <c r="S105" s="4" t="str">
-        <f t="shared" si="41"/>
-        <v>^</v>
-      </c>
-      <c r="T105" s="4" t="str">
-        <f t="shared" si="41"/>
-        <v>^</v>
-      </c>
-      <c r="U105" s="4" t="str">
-        <f t="shared" si="41"/>
-        <v>^</v>
+      <c r="R106" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>&lt;</v>
+      </c>
+      <c r="S106" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>^</v>
+      </c>
+      <c r="T106" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>^</v>
+      </c>
+      <c r="U106" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>^</v>
+      </c>
+      <c r="V106" s="6">
+        <f t="shared" si="30"/>
+        <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B106" s="4" t="str">
-        <f t="shared" ref="B106:U106" si="42">IF(MAX(B61,C62,B63,A62)=B61,"^",IF(MAX(B61,C62,B63,A62)=C62,"&gt;",IF(MAX(B61,C62,B63,A62)=B63,"v",IF(MAX(B61,C62,B63,A62)=A62,"&lt;","?"))))</f>
-        <v>^</v>
-      </c>
-      <c r="C106" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>^</v>
-      </c>
-      <c r="D106" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>^</v>
-      </c>
-      <c r="E106" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>^</v>
-      </c>
-      <c r="F106" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>^</v>
-      </c>
-      <c r="G106" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>^</v>
-      </c>
-      <c r="H106" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;</v>
-      </c>
-      <c r="I106" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>^</v>
-      </c>
-      <c r="J106" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>^</v>
-      </c>
-      <c r="K106" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>^</v>
-      </c>
-      <c r="L106" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;</v>
-      </c>
-      <c r="M106" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>^</v>
-      </c>
-      <c r="N106" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;</v>
-      </c>
-      <c r="O106" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;</v>
-      </c>
-      <c r="P106" s="4" t="str">
-        <f t="shared" si="42"/>
+    <row r="107" spans="1:22">
+      <c r="A107" s="6">
+        <f t="shared" si="31"/>
+        <v>14</v>
+      </c>
+      <c r="B107" s="4" t="str">
+        <f t="shared" ref="B107:U107" si="44">IF(MAX(B61,C62,B63,A62)=B61,"^",IF(MAX(B61,C62,B63,A62)=C62,"&gt;",IF(MAX(B61,C62,B63,A62)=B63,"v",IF(MAX(B61,C62,B63,A62)=A62,"&lt;","?"))))</f>
+        <v>^</v>
+      </c>
+      <c r="C107" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>^</v>
+      </c>
+      <c r="D107" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>^</v>
+      </c>
+      <c r="E107" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>^</v>
+      </c>
+      <c r="F107" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>^</v>
+      </c>
+      <c r="G107" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>^</v>
+      </c>
+      <c r="H107" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>&lt;</v>
+      </c>
+      <c r="I107" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>^</v>
+      </c>
+      <c r="J107" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>^</v>
+      </c>
+      <c r="K107" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>^</v>
+      </c>
+      <c r="L107" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>&lt;</v>
+      </c>
+      <c r="M107" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>^</v>
+      </c>
+      <c r="N107" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>&lt;</v>
+      </c>
+      <c r="O107" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>&lt;</v>
+      </c>
+      <c r="P107" s="4" t="str">
+        <f t="shared" si="44"/>
         <v>v</v>
       </c>
-      <c r="Q106" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;</v>
-      </c>
-      <c r="R106" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;</v>
-      </c>
-      <c r="S106" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>^</v>
-      </c>
-      <c r="T106" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>^</v>
-      </c>
-      <c r="U106" s="4" t="str">
-        <f t="shared" si="42"/>
-        <v>^</v>
+      <c r="Q107" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>&lt;</v>
+      </c>
+      <c r="R107" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>&lt;</v>
+      </c>
+      <c r="S107" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>^</v>
+      </c>
+      <c r="T107" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>^</v>
+      </c>
+      <c r="U107" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>^</v>
+      </c>
+      <c r="V107" s="6">
+        <f t="shared" si="30"/>
+        <v>14</v>
       </c>
     </row>
-    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B107" s="4" t="str">
-        <f t="shared" ref="B107:U107" si="43">IF(MAX(B62,C63,B64,A63)=B62,"^",IF(MAX(B62,C63,B64,A63)=C63,"&gt;",IF(MAX(B62,C63,B64,A63)=B64,"v",IF(MAX(B62,C63,B64,A63)=A63,"&lt;","?"))))</f>
-        <v>^</v>
-      </c>
-      <c r="C107" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>^</v>
-      </c>
-      <c r="D107" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>^</v>
-      </c>
-      <c r="E107" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;</v>
-      </c>
-      <c r="F107" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>^</v>
-      </c>
-      <c r="G107" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>^</v>
-      </c>
-      <c r="H107" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;</v>
-      </c>
-      <c r="I107" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>^</v>
-      </c>
-      <c r="J107" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;</v>
-      </c>
-      <c r="K107" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;</v>
-      </c>
-      <c r="L107" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;</v>
-      </c>
-      <c r="M107" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;</v>
-      </c>
-      <c r="N107" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;</v>
-      </c>
-      <c r="O107" s="4" t="str">
-        <f t="shared" si="43"/>
+    <row r="108" spans="1:22">
+      <c r="A108" s="6">
+        <f t="shared" si="31"/>
+        <v>15</v>
+      </c>
+      <c r="B108" s="4" t="str">
+        <f t="shared" ref="B108:U108" si="45">IF(MAX(B62,C63,B64,A63)=B62,"^",IF(MAX(B62,C63,B64,A63)=C63,"&gt;",IF(MAX(B62,C63,B64,A63)=B64,"v",IF(MAX(B62,C63,B64,A63)=A63,"&lt;","?"))))</f>
+        <v>^</v>
+      </c>
+      <c r="C108" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>^</v>
+      </c>
+      <c r="D108" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>^</v>
+      </c>
+      <c r="E108" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>&lt;</v>
+      </c>
+      <c r="F108" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>^</v>
+      </c>
+      <c r="G108" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>^</v>
+      </c>
+      <c r="H108" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>&lt;</v>
+      </c>
+      <c r="I108" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>^</v>
+      </c>
+      <c r="J108" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>&lt;</v>
+      </c>
+      <c r="K108" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>&lt;</v>
+      </c>
+      <c r="L108" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>&lt;</v>
+      </c>
+      <c r="M108" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>&lt;</v>
+      </c>
+      <c r="N108" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>&lt;</v>
+      </c>
+      <c r="O108" s="4" t="str">
+        <f t="shared" si="45"/>
         <v>&gt;</v>
       </c>
-      <c r="P107" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;</v>
-      </c>
-      <c r="Q107" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;</v>
-      </c>
-      <c r="R107" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>^</v>
-      </c>
-      <c r="S107" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;</v>
-      </c>
-      <c r="T107" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>^</v>
-      </c>
-      <c r="U107" s="4" t="str">
-        <f t="shared" si="43"/>
-        <v>^</v>
+      <c r="P108" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>&lt;</v>
+      </c>
+      <c r="Q108" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>&lt;</v>
+      </c>
+      <c r="R108" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>^</v>
+      </c>
+      <c r="S108" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>&lt;</v>
+      </c>
+      <c r="T108" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>^</v>
+      </c>
+      <c r="U108" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>^</v>
+      </c>
+      <c r="V108" s="6">
+        <f t="shared" si="30"/>
+        <v>15</v>
       </c>
     </row>
-    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B108" s="4" t="str">
-        <f t="shared" ref="B108:U108" si="44">IF(MAX(B63,C64,B65,A64)=B63,"^",IF(MAX(B63,C64,B65,A64)=C64,"&gt;",IF(MAX(B63,C64,B65,A64)=B65,"v",IF(MAX(B63,C64,B65,A64)=A64,"&lt;","?"))))</f>
-        <v>^</v>
-      </c>
-      <c r="C108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>^</v>
-      </c>
-      <c r="D108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>^</v>
-      </c>
-      <c r="E108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;</v>
-      </c>
-      <c r="F108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>^</v>
-      </c>
-      <c r="G108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;</v>
-      </c>
-      <c r="H108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;</v>
-      </c>
-      <c r="I108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;</v>
-      </c>
-      <c r="J108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;</v>
-      </c>
-      <c r="K108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;</v>
-      </c>
-      <c r="L108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;</v>
-      </c>
-      <c r="M108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;</v>
-      </c>
-      <c r="N108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;</v>
-      </c>
-      <c r="O108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>^</v>
-      </c>
-      <c r="P108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>^</v>
-      </c>
-      <c r="Q108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;</v>
-      </c>
-      <c r="R108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;</v>
-      </c>
-      <c r="S108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>^</v>
-      </c>
-      <c r="T108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>^</v>
-      </c>
-      <c r="U108" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>^</v>
+    <row r="109" spans="1:22">
+      <c r="A109" s="6">
+        <f t="shared" si="31"/>
+        <v>16</v>
+      </c>
+      <c r="B109" s="4" t="str">
+        <f t="shared" ref="B109:U109" si="46">IF(MAX(B63,C64,B65,A64)=B63,"^",IF(MAX(B63,C64,B65,A64)=C64,"&gt;",IF(MAX(B63,C64,B65,A64)=B65,"v",IF(MAX(B63,C64,B65,A64)=A64,"&lt;","?"))))</f>
+        <v>^</v>
+      </c>
+      <c r="C109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>^</v>
+      </c>
+      <c r="D109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>^</v>
+      </c>
+      <c r="E109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>&lt;</v>
+      </c>
+      <c r="F109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>^</v>
+      </c>
+      <c r="G109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>&lt;</v>
+      </c>
+      <c r="H109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>&lt;</v>
+      </c>
+      <c r="I109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>&lt;</v>
+      </c>
+      <c r="J109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>&lt;</v>
+      </c>
+      <c r="K109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>&lt;</v>
+      </c>
+      <c r="L109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>&lt;</v>
+      </c>
+      <c r="M109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>&lt;</v>
+      </c>
+      <c r="N109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>&lt;</v>
+      </c>
+      <c r="O109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>^</v>
+      </c>
+      <c r="P109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>^</v>
+      </c>
+      <c r="Q109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>&lt;</v>
+      </c>
+      <c r="R109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>&lt;</v>
+      </c>
+      <c r="S109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>^</v>
+      </c>
+      <c r="T109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>^</v>
+      </c>
+      <c r="U109" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>^</v>
+      </c>
+      <c r="V109" s="6">
+        <f t="shared" si="30"/>
+        <v>16</v>
       </c>
     </row>
-    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B109" s="4" t="str">
-        <f t="shared" ref="B109:U109" si="45">IF(MAX(B64,C65,B66,A65)=B64,"^",IF(MAX(B64,C65,B66,A65)=C65,"&gt;",IF(MAX(B64,C65,B66,A65)=B66,"v",IF(MAX(B64,C65,B66,A65)=A65,"&lt;","?"))))</f>
-        <v>^</v>
-      </c>
-      <c r="C109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>^</v>
-      </c>
-      <c r="D109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>^</v>
-      </c>
-      <c r="E109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;</v>
-      </c>
-      <c r="F109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>^</v>
-      </c>
-      <c r="G109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;</v>
-      </c>
-      <c r="H109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;</v>
-      </c>
-      <c r="I109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;</v>
-      </c>
-      <c r="J109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;</v>
-      </c>
-      <c r="K109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;</v>
-      </c>
-      <c r="L109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;</v>
-      </c>
-      <c r="M109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;</v>
-      </c>
-      <c r="N109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;</v>
-      </c>
-      <c r="O109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>^</v>
-      </c>
-      <c r="P109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;</v>
-      </c>
-      <c r="Q109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>^</v>
-      </c>
-      <c r="R109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;</v>
-      </c>
-      <c r="S109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;</v>
-      </c>
-      <c r="T109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>^</v>
-      </c>
-      <c r="U109" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>^</v>
+    <row r="110" spans="1:22">
+      <c r="A110" s="6">
+        <f t="shared" si="31"/>
+        <v>17</v>
+      </c>
+      <c r="B110" s="4" t="str">
+        <f t="shared" ref="B110:U110" si="47">IF(MAX(B64,C65,B66,A65)=B64,"^",IF(MAX(B64,C65,B66,A65)=C65,"&gt;",IF(MAX(B64,C65,B66,A65)=B66,"v",IF(MAX(B64,C65,B66,A65)=A65,"&lt;","?"))))</f>
+        <v>^</v>
+      </c>
+      <c r="C110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>^</v>
+      </c>
+      <c r="D110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>^</v>
+      </c>
+      <c r="E110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>&lt;</v>
+      </c>
+      <c r="F110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>^</v>
+      </c>
+      <c r="G110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>&lt;</v>
+      </c>
+      <c r="H110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>&lt;</v>
+      </c>
+      <c r="I110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>&lt;</v>
+      </c>
+      <c r="J110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>&lt;</v>
+      </c>
+      <c r="K110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>&lt;</v>
+      </c>
+      <c r="L110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>&lt;</v>
+      </c>
+      <c r="M110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>&lt;</v>
+      </c>
+      <c r="N110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>&lt;</v>
+      </c>
+      <c r="O110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>^</v>
+      </c>
+      <c r="P110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>&lt;</v>
+      </c>
+      <c r="Q110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>^</v>
+      </c>
+      <c r="R110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>&lt;</v>
+      </c>
+      <c r="S110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>&lt;</v>
+      </c>
+      <c r="T110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>^</v>
+      </c>
+      <c r="U110" s="4" t="str">
+        <f t="shared" si="47"/>
+        <v>^</v>
+      </c>
+      <c r="V110" s="6">
+        <f t="shared" si="30"/>
+        <v>17</v>
       </c>
     </row>
-    <row r="110" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B110" s="4" t="str">
-        <f t="shared" ref="B110:U110" si="46">IF(MAX(B65,C66,B67,A66)=B65,"^",IF(MAX(B65,C66,B67,A66)=C66,"&gt;",IF(MAX(B65,C66,B67,A66)=B67,"v",IF(MAX(B65,C66,B67,A66)=A66,"&lt;","?"))))</f>
-        <v>^</v>
-      </c>
-      <c r="C110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>^</v>
-      </c>
-      <c r="D110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;</v>
-      </c>
-      <c r="E110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;</v>
-      </c>
-      <c r="F110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;</v>
-      </c>
-      <c r="G110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;</v>
-      </c>
-      <c r="H110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;</v>
-      </c>
-      <c r="I110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;</v>
-      </c>
-      <c r="J110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;</v>
-      </c>
-      <c r="K110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;</v>
-      </c>
-      <c r="L110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;</v>
-      </c>
-      <c r="M110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;</v>
-      </c>
-      <c r="N110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;</v>
-      </c>
-      <c r="O110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;</v>
-      </c>
-      <c r="P110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;</v>
-      </c>
-      <c r="Q110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;</v>
-      </c>
-      <c r="R110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;</v>
-      </c>
-      <c r="S110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;</v>
-      </c>
-      <c r="T110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>^</v>
-      </c>
-      <c r="U110" s="4" t="str">
-        <f t="shared" si="46"/>
-        <v>^</v>
+    <row r="111" spans="1:22">
+      <c r="A111" s="6">
+        <f t="shared" si="31"/>
+        <v>18</v>
+      </c>
+      <c r="B111" s="4" t="str">
+        <f t="shared" ref="B111:U111" si="48">IF(MAX(B65,C66,B67,A66)=B65,"^",IF(MAX(B65,C66,B67,A66)=C66,"&gt;",IF(MAX(B65,C66,B67,A66)=B67,"v",IF(MAX(B65,C66,B67,A66)=A66,"&lt;","?"))))</f>
+        <v>^</v>
+      </c>
+      <c r="C111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>^</v>
+      </c>
+      <c r="D111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;</v>
+      </c>
+      <c r="E111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;</v>
+      </c>
+      <c r="F111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;</v>
+      </c>
+      <c r="G111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;</v>
+      </c>
+      <c r="H111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;</v>
+      </c>
+      <c r="I111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;</v>
+      </c>
+      <c r="J111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;</v>
+      </c>
+      <c r="K111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;</v>
+      </c>
+      <c r="L111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;</v>
+      </c>
+      <c r="M111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;</v>
+      </c>
+      <c r="N111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;</v>
+      </c>
+      <c r="O111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;</v>
+      </c>
+      <c r="P111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;</v>
+      </c>
+      <c r="Q111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;</v>
+      </c>
+      <c r="R111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;</v>
+      </c>
+      <c r="S111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;</v>
+      </c>
+      <c r="T111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>^</v>
+      </c>
+      <c r="U111" s="4" t="str">
+        <f t="shared" si="48"/>
+        <v>^</v>
+      </c>
+      <c r="V111" s="6">
+        <f t="shared" si="30"/>
+        <v>18</v>
       </c>
     </row>
-    <row r="111" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B111" s="4" t="str">
-        <f t="shared" ref="B111:U111" si="47">IF(MAX(B66,C67,B68,A67)=B66,"^",IF(MAX(B66,C67,B68,A67)=C67,"&gt;",IF(MAX(B66,C67,B68,A67)=B68,"v",IF(MAX(B66,C67,B68,A67)=A67,"&lt;","?"))))</f>
-        <v>^</v>
-      </c>
-      <c r="C111" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;</v>
-      </c>
-      <c r="D111" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;</v>
-      </c>
-      <c r="E111" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;</v>
-      </c>
-      <c r="F111" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;</v>
-      </c>
-      <c r="G111" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;</v>
-      </c>
-      <c r="H111" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;</v>
-      </c>
-      <c r="I111" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;</v>
-      </c>
-      <c r="J111" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;</v>
-      </c>
-      <c r="K111" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;</v>
-      </c>
-      <c r="L111" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;</v>
-      </c>
-      <c r="M111" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;</v>
-      </c>
-      <c r="N111" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;</v>
-      </c>
-      <c r="O111" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;</v>
-      </c>
-      <c r="P111" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;</v>
-      </c>
-      <c r="Q111" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;</v>
-      </c>
-      <c r="R111" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;</v>
-      </c>
-      <c r="S111" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;</v>
-      </c>
-      <c r="T111" s="4" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;</v>
-      </c>
-      <c r="U111" s="4" t="str">
+    <row r="112" spans="1:22">
+      <c r="A112" s="6">
+        <f t="shared" si="31"/>
+        <v>19</v>
+      </c>
+      <c r="B112" s="4" t="str">
+        <f t="shared" ref="B112:T112" si="49">IF(MAX(B66,C67,B68,A67)=B66,"^",IF(MAX(B66,C67,B68,A67)=C67,"&gt;",IF(MAX(B66,C67,B68,A67)=B68,"v",IF(MAX(B66,C67,B68,A67)=A67,"&lt;","?"))))</f>
+        <v>^</v>
+      </c>
+      <c r="C112" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;</v>
+      </c>
+      <c r="D112" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;</v>
+      </c>
+      <c r="E112" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;</v>
+      </c>
+      <c r="F112" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;</v>
+      </c>
+      <c r="G112" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;</v>
+      </c>
+      <c r="H112" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;</v>
+      </c>
+      <c r="I112" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;</v>
+      </c>
+      <c r="J112" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;</v>
+      </c>
+      <c r="K112" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;</v>
+      </c>
+      <c r="L112" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;</v>
+      </c>
+      <c r="M112" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;</v>
+      </c>
+      <c r="N112" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;</v>
+      </c>
+      <c r="O112" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;</v>
+      </c>
+      <c r="P112" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;</v>
+      </c>
+      <c r="Q112" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;</v>
+      </c>
+      <c r="R112" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;</v>
+      </c>
+      <c r="S112" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;</v>
+      </c>
+      <c r="T112" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;</v>
+      </c>
+      <c r="U112" s="4" t="str">
         <f>IF(MAX(U66,V67,U68,T67)=U66,"^",IF(MAX(U66,V67,U68,T67)=V67,"&gt;",IF(MAX(U66,V67,U68,T67)=U68,"v",IF(MAX(U66,V67,U68,T67)=T67,"&lt;","?"))))</f>
         <v>&lt;</v>
       </c>
+      <c r="V112" s="6">
+        <f t="shared" si="30"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6">
+        <f>B92</f>
+        <v>0</v>
+      </c>
+      <c r="C113" s="6">
+        <f t="shared" ref="C113:U113" si="50">C92</f>
+        <v>1</v>
+      </c>
+      <c r="D113" s="6">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="E113" s="6">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+      <c r="F113" s="6">
+        <f t="shared" si="50"/>
+        <v>4</v>
+      </c>
+      <c r="G113" s="6">
+        <f t="shared" si="50"/>
+        <v>5</v>
+      </c>
+      <c r="H113" s="6">
+        <f t="shared" si="50"/>
+        <v>6</v>
+      </c>
+      <c r="I113" s="6">
+        <f t="shared" si="50"/>
+        <v>7</v>
+      </c>
+      <c r="J113" s="6">
+        <f t="shared" si="50"/>
+        <v>8</v>
+      </c>
+      <c r="K113" s="6">
+        <f t="shared" si="50"/>
+        <v>9</v>
+      </c>
+      <c r="L113" s="6">
+        <f t="shared" si="50"/>
+        <v>10</v>
+      </c>
+      <c r="M113" s="6">
+        <f t="shared" si="50"/>
+        <v>11</v>
+      </c>
+      <c r="N113" s="6">
+        <f t="shared" si="50"/>
+        <v>12</v>
+      </c>
+      <c r="O113" s="6">
+        <f t="shared" si="50"/>
+        <v>13</v>
+      </c>
+      <c r="P113" s="6">
+        <f t="shared" si="50"/>
+        <v>14</v>
+      </c>
+      <c r="Q113" s="6">
+        <f t="shared" si="50"/>
+        <v>15</v>
+      </c>
+      <c r="R113" s="6">
+        <f t="shared" si="50"/>
+        <v>16</v>
+      </c>
+      <c r="S113" s="6">
+        <f t="shared" si="50"/>
+        <v>17</v>
+      </c>
+      <c r="T113" s="6">
+        <f t="shared" si="50"/>
+        <v>18</v>
+      </c>
+      <c r="U113" s="6">
+        <f t="shared" si="50"/>
+        <v>19</v>
+      </c>
+      <c r="V113" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B48:U67">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:U90">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B71:U91">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B93:U112">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+      <formula>"&gt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+      <formula>"&lt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+      <formula>"^"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+      <formula>"v"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>